--- a/public/Gd. Cyber, Jakarta - Bogor.xlsx
+++ b/public/Gd. Cyber, Jakarta - Bogor.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>Fiber</t>
   </si>
@@ -32,6 +32,111 @@
     <t>Attenuation</t>
   </si>
   <si>
+    <t>Core2</t>
+  </si>
+  <si>
+    <t>Core4</t>
+  </si>
+  <si>
+    <t>Core6</t>
+  </si>
+  <si>
+    <t>Core7</t>
+  </si>
+  <si>
+    <t>Core8</t>
+  </si>
+  <si>
+    <t>Core9</t>
+  </si>
+  <si>
+    <t>Core10</t>
+  </si>
+  <si>
+    <t>Core11</t>
+  </si>
+  <si>
+    <t>Core12</t>
+  </si>
+  <si>
+    <t>Core13</t>
+  </si>
+  <si>
+    <t>Core14</t>
+  </si>
+  <si>
+    <t>Core15</t>
+  </si>
+  <si>
+    <t>Core16</t>
+  </si>
+  <si>
+    <t>Core17</t>
+  </si>
+  <si>
+    <t>Core18</t>
+  </si>
+  <si>
+    <t>Core19</t>
+  </si>
+  <si>
+    <t>Core20</t>
+  </si>
+  <si>
+    <t>Core21</t>
+  </si>
+  <si>
+    <t>Core22</t>
+  </si>
+  <si>
+    <t>Core23</t>
+  </si>
+  <si>
+    <t>Core24</t>
+  </si>
+  <si>
+    <t>Core26</t>
+  </si>
+  <si>
+    <t>Core27</t>
+  </si>
+  <si>
+    <t>Core28</t>
+  </si>
+  <si>
+    <t>Core29</t>
+  </si>
+  <si>
+    <t>Core30</t>
+  </si>
+  <si>
+    <t>Core31</t>
+  </si>
+  <si>
+    <t>Core32</t>
+  </si>
+  <si>
+    <t>Core33</t>
+  </si>
+  <si>
+    <t>Core34</t>
+  </si>
+  <si>
+    <t>Core35</t>
+  </si>
+  <si>
+    <t>Core36</t>
+  </si>
+  <si>
+    <t>Core38</t>
+  </si>
+  <si>
+    <t>Core39</t>
+  </si>
+  <si>
+    <t>Core40</t>
+  </si>
+  <si>
     <t>Core41</t>
   </si>
   <si>
@@ -51,6 +156,21 @@
   </si>
   <si>
     <t>Core48</t>
+  </si>
+  <si>
+    <t>Core49</t>
+  </si>
+  <si>
+    <t>Core50</t>
+  </si>
+  <si>
+    <t>Core51</t>
+  </si>
+  <si>
+    <t>Core52</t>
+  </si>
+  <si>
+    <t>Core59</t>
   </si>
   <si>
     <t>1550 nm</t>
@@ -393,7 +513,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:BI12"/>
+  <dimension ref="A1:CU52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -401,7 +521,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="5" spans="1:61">
+    <row r="5" spans="1:99">
       <c r="C5" t="s">
         <v>0</v>
       </c>
@@ -421,761 +541,4387 @@
         <v>0.0</v>
       </c>
       <c r="I5">
-        <v>1.442</v>
+        <v>0.49</v>
       </c>
       <c r="J5">
-        <v>3.432</v>
+        <v>0.868</v>
       </c>
       <c r="K5">
-        <v>4.401</v>
+        <v>1.401</v>
       </c>
       <c r="L5">
-        <v>4.645</v>
+        <v>2.112</v>
       </c>
       <c r="M5">
-        <v>5.87</v>
+        <v>3.443</v>
       </c>
       <c r="N5">
-        <v>9.033</v>
+        <v>3.762</v>
       </c>
       <c r="O5">
-        <v>9.305</v>
+        <v>4.007</v>
       </c>
       <c r="P5">
-        <v>10.183</v>
+        <v>4.498</v>
       </c>
       <c r="Q5">
+        <v>5.881</v>
+      </c>
+      <c r="R5">
+        <v>6.715</v>
+      </c>
+      <c r="S5">
+        <v>7.41</v>
+      </c>
+      <c r="T5">
+        <v>8.064</v>
+      </c>
+      <c r="U5">
+        <v>8.363</v>
+      </c>
+      <c r="V5">
+        <v>8.754</v>
+      </c>
+      <c r="W5">
+        <v>9.112</v>
+      </c>
+      <c r="X5">
+        <v>9.608</v>
+      </c>
+      <c r="Y5">
+        <v>9.826</v>
+      </c>
+      <c r="Z5">
+        <v>9.989</v>
+      </c>
+      <c r="AA5">
         <v>10.331</v>
       </c>
-      <c r="R5">
-        <v>12.503</v>
-      </c>
-      <c r="S5">
-        <v>14.371</v>
-      </c>
-      <c r="T5">
-        <v>14.501</v>
-      </c>
-      <c r="U5">
-        <v>14.712</v>
-      </c>
-      <c r="V5">
-        <v>16.807</v>
-      </c>
-      <c r="W5">
-        <v>18.985</v>
-      </c>
-      <c r="X5">
-        <v>20.067</v>
-      </c>
-      <c r="Y5">
-        <v>20.736</v>
-      </c>
-      <c r="Z5">
-        <v>20.887</v>
-      </c>
-      <c r="AA5">
-        <v>21.455</v>
-      </c>
       <c r="AB5">
-        <v>21.79</v>
+        <v>11.131</v>
       </c>
       <c r="AC5">
-        <v>21.892</v>
+        <v>11.356</v>
       </c>
       <c r="AD5">
-        <v>23.288</v>
+        <v>11.804</v>
       </c>
       <c r="AE5">
-        <v>23.546</v>
+        <v>12.156</v>
       </c>
       <c r="AF5">
-        <v>23.943</v>
+        <v>12.281</v>
       </c>
       <c r="AG5">
-        <v>25.162</v>
+        <v>12.496</v>
       </c>
       <c r="AH5">
-        <v>25.881</v>
+        <v>13.567</v>
       </c>
       <c r="AI5">
-        <v>25.991</v>
+        <v>13.879</v>
       </c>
       <c r="AJ5">
-        <v>28.184</v>
+        <v>14.403</v>
       </c>
       <c r="AK5">
-        <v>29.076</v>
+        <v>14.715</v>
       </c>
       <c r="AL5">
-        <v>29.375</v>
+        <v>16.533</v>
       </c>
       <c r="AM5">
-        <v>29.569</v>
+        <v>16.846</v>
       </c>
       <c r="AN5">
-        <v>30.512</v>
+        <v>17.082</v>
       </c>
       <c r="AO5">
-        <v>31.711</v>
+        <v>17.891</v>
       </c>
       <c r="AP5">
-        <v>32.191</v>
+        <v>18.166</v>
       </c>
       <c r="AQ5">
-        <v>32.943</v>
+        <v>19.058</v>
       </c>
       <c r="AR5">
-        <v>34.423</v>
+        <v>19.498</v>
       </c>
       <c r="AS5">
-        <v>35.23</v>
+        <v>19.716</v>
       </c>
       <c r="AT5">
-        <v>36.659</v>
+        <v>20.081</v>
       </c>
       <c r="AU5">
-        <v>37.374</v>
+        <v>20.504</v>
       </c>
       <c r="AV5">
-        <v>37.757</v>
+        <v>20.774</v>
       </c>
       <c r="AW5">
-        <v>38.429</v>
+        <v>21.475</v>
       </c>
       <c r="AX5">
-        <v>38.561</v>
+        <v>21.89</v>
       </c>
       <c r="AY5">
-        <v>38.922</v>
+        <v>22.237</v>
       </c>
       <c r="AZ5">
-        <v>39.781</v>
+        <v>22.888</v>
       </c>
       <c r="BA5">
-        <v>40.437</v>
+        <v>23.117</v>
       </c>
       <c r="BB5">
-        <v>41.42</v>
+        <v>23.345</v>
       </c>
       <c r="BC5">
-        <v>42.039</v>
+        <v>23.914</v>
       </c>
       <c r="BD5">
-        <v>44.229</v>
+        <v>24.69</v>
       </c>
       <c r="BE5">
-        <v>44.982</v>
+        <v>24.802</v>
       </c>
       <c r="BF5">
-        <v>46.803</v>
+        <v>25.238</v>
       </c>
       <c r="BG5">
-        <v>47.011</v>
+        <v>25.796</v>
       </c>
       <c r="BH5">
-        <v>48.341</v>
+        <v>26.165</v>
       </c>
       <c r="BI5">
-        <v>48.673</v>
+        <v>27.298</v>
+      </c>
+      <c r="BJ5">
+        <v>28.181</v>
+      </c>
+      <c r="BK5">
+        <v>28.686</v>
+      </c>
+      <c r="BL5">
+        <v>29.209</v>
+      </c>
+      <c r="BM5">
+        <v>29.633</v>
+      </c>
+      <c r="BN5">
+        <v>30.594</v>
+      </c>
+      <c r="BO5">
+        <v>31.727</v>
+      </c>
+      <c r="BP5">
+        <v>31.922</v>
+      </c>
+      <c r="BQ5">
+        <v>32.212</v>
+      </c>
+      <c r="BR5">
+        <v>32.591</v>
+      </c>
+      <c r="BS5">
+        <v>32.985</v>
+      </c>
+      <c r="BT5">
+        <v>34.036</v>
+      </c>
+      <c r="BU5">
+        <v>34.454</v>
+      </c>
+      <c r="BV5">
+        <v>34.771</v>
+      </c>
+      <c r="BW5">
+        <v>34.97</v>
+      </c>
+      <c r="BX5">
+        <v>35.234</v>
+      </c>
+      <c r="BY5">
+        <v>36.302</v>
+      </c>
+      <c r="BZ5">
+        <v>36.682</v>
+      </c>
+      <c r="CA5">
+        <v>37.48</v>
+      </c>
+      <c r="CB5">
+        <v>38.492</v>
+      </c>
+      <c r="CC5">
+        <v>38.937</v>
+      </c>
+      <c r="CD5">
+        <v>39.51</v>
+      </c>
+      <c r="CE5">
+        <v>39.786</v>
+      </c>
+      <c r="CF5">
+        <v>40.424</v>
+      </c>
+      <c r="CG5">
+        <v>40.722</v>
+      </c>
+      <c r="CH5">
+        <v>41.5</v>
+      </c>
+      <c r="CI5">
+        <v>42.052</v>
+      </c>
+      <c r="CJ5">
+        <v>42.912</v>
+      </c>
+      <c r="CK5">
+        <v>44.254</v>
+      </c>
+      <c r="CL5">
+        <v>45.002</v>
+      </c>
+      <c r="CM5">
+        <v>45.314</v>
+      </c>
+      <c r="CN5">
+        <v>46.813</v>
+      </c>
+      <c r="CO5">
+        <v>47.368</v>
+      </c>
+      <c r="CP5">
+        <v>47.567</v>
+      </c>
+      <c r="CQ5">
+        <v>47.845</v>
+      </c>
+      <c r="CR5">
+        <v>48.011</v>
+      </c>
+      <c r="CS5">
+        <v>48.134</v>
+      </c>
+      <c r="CT5">
+        <v>48.332</v>
+      </c>
+      <c r="CU5">
+        <v>48.693</v>
       </c>
     </row>
-    <row r="6" spans="1:61">
+    <row r="6" spans="1:99">
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E6">
-        <v>15.045</v>
+        <v>10.368</v>
       </c>
       <c r="F6">
-        <v>48.68</v>
+        <v>24.016</v>
       </c>
       <c r="G6">
-        <v>0.309</v>
+        <v>0.432</v>
       </c>
       <c r="H6">
         <v>0.0</v>
       </c>
-      <c r="J6">
-        <v>1.599</v>
-      </c>
       <c r="K6">
-        <v>0.188</v>
+        <v>0.038</v>
       </c>
       <c r="M6">
-        <v>0.402</v>
-      </c>
-      <c r="N6">
-        <v>0.149</v>
+        <v>0.374</v>
+      </c>
+      <c r="O6">
+        <v>0.407</v>
+      </c>
+      <c r="P6">
+        <v>0.064</v>
       </c>
       <c r="Q6">
-        <v>0.068</v>
-      </c>
-      <c r="T6">
-        <v>0.18</v>
-      </c>
-      <c r="W6">
-        <v>0.053</v>
-      </c>
-      <c r="X6">
-        <v>0.06</v>
-      </c>
-      <c r="Z6">
-        <v>0.301</v>
-      </c>
-      <c r="AD6">
-        <v>0.157</v>
-      </c>
-      <c r="AE6">
-        <v>0.109</v>
-      </c>
-      <c r="AF6">
-        <v>0.167</v>
-      </c>
-      <c r="AG6">
-        <v>0.249</v>
-      </c>
-      <c r="AH6">
-        <v>0.433</v>
+        <v>0.035</v>
+      </c>
+      <c r="V6">
+        <v>2.088</v>
       </c>
       <c r="AJ6">
-        <v>0.187</v>
-      </c>
-      <c r="AK6">
-        <v>0.102</v>
-      </c>
-      <c r="AN6">
-        <v>-0.036</v>
-      </c>
-      <c r="AP6">
-        <v>0.128</v>
-      </c>
-      <c r="AS6">
-        <v>0.093</v>
-      </c>
-      <c r="AU6">
-        <v>0.372</v>
-      </c>
-      <c r="AW6">
-        <v>0.351</v>
-      </c>
-      <c r="AZ6">
-        <v>0.196</v>
+        <v>0.192</v>
+      </c>
+      <c r="AM6">
+        <v>0.047</v>
+      </c>
+      <c r="AT6">
+        <v>0.072</v>
+      </c>
+      <c r="AX6">
+        <v>0.293</v>
+      </c>
+      <c r="AY6">
+        <v>0.141</v>
       </c>
       <c r="BB6">
-        <v>0.142</v>
-      </c>
-      <c r="BE6">
-        <v>0.068</v>
-      </c>
-      <c r="BF6">
-        <v>0.129</v>
-      </c>
-      <c r="BH6">
-        <v>0.125</v>
-      </c>
-      <c r="BI6">
+        <v>1.367</v>
+      </c>
+      <c r="BC6">
         <v>0.0</v>
       </c>
     </row>
-    <row r="7" spans="1:61">
+    <row r="7" spans="1:99">
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E7">
-        <v>5.35</v>
+        <v>7.944</v>
       </c>
       <c r="F7">
-        <v>20.045</v>
+        <v>24.026</v>
       </c>
       <c r="G7">
-        <v>0.267</v>
+        <v>0.331</v>
       </c>
       <c r="H7">
         <v>0.0</v>
       </c>
-      <c r="I7">
-        <v>0.192</v>
-      </c>
-      <c r="J7">
-        <v>0.175</v>
-      </c>
-      <c r="L7">
-        <v>0.129</v>
+      <c r="K7">
+        <v>0.034</v>
       </c>
       <c r="M7">
-        <v>0.379</v>
-      </c>
-      <c r="N7">
-        <v>0.162</v>
+        <v>0.234</v>
+      </c>
+      <c r="P7">
+        <v>0.067</v>
       </c>
       <c r="Q7">
-        <v>0.197</v>
-      </c>
-      <c r="U7">
-        <v>0.115</v>
-      </c>
-      <c r="W7">
-        <v>0.168</v>
+        <v>0.073</v>
+      </c>
+      <c r="V7">
+        <v>0.25</v>
       </c>
       <c r="X7">
+        <v>0.624</v>
+      </c>
+      <c r="AA7">
+        <v>0.08</v>
+      </c>
+      <c r="AK7">
+        <v>0.063</v>
+      </c>
+      <c r="AM7">
+        <v>0.054</v>
+      </c>
+      <c r="AQ7">
+        <v>0.076</v>
+      </c>
+      <c r="AV7">
+        <v>0.083</v>
+      </c>
+      <c r="AW7">
+        <v>1.276</v>
+      </c>
+      <c r="BC7">
         <v>0.0</v>
       </c>
     </row>
-    <row r="8" spans="1:61">
+    <row r="8" spans="1:99">
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E8">
-        <v>5.461</v>
+        <v>7.697</v>
       </c>
       <c r="F8">
-        <v>20.05</v>
+        <v>24.69</v>
       </c>
       <c r="G8">
-        <v>0.272</v>
+        <v>0.312</v>
       </c>
       <c r="H8">
         <v>0.0</v>
       </c>
-      <c r="J8">
-        <v>0.21</v>
+      <c r="I8">
+        <v>1.016</v>
       </c>
       <c r="K8">
-        <v>0.201</v>
-      </c>
-      <c r="M8">
-        <v>0.386</v>
-      </c>
-      <c r="N8">
-        <v>0.498</v>
-      </c>
-      <c r="Q8">
+        <v>0.106</v>
+      </c>
+      <c r="L8">
+        <v>0.098</v>
+      </c>
+      <c r="P8">
+        <v>0.065</v>
+      </c>
+      <c r="R8">
+        <v>0.068</v>
+      </c>
+      <c r="S8">
+        <v>0.161</v>
+      </c>
+      <c r="U8">
+        <v>0.072</v>
+      </c>
+      <c r="W8">
+        <v>0.049</v>
+      </c>
+      <c r="Y8">
+        <v>0.126</v>
+      </c>
+      <c r="AA8">
+        <v>0.187</v>
+      </c>
+      <c r="AB8">
+        <v>0.092</v>
+      </c>
+      <c r="AC8">
+        <v>0.111</v>
+      </c>
+      <c r="AL8">
+        <v>-0.068</v>
+      </c>
+      <c r="AN8">
+        <v>0.128</v>
+      </c>
+      <c r="AQ8">
+        <v>0.177</v>
+      </c>
+      <c r="AS8">
         <v>0.131</v>
       </c>
-      <c r="U8">
-        <v>0.207</v>
-      </c>
-      <c r="V8">
-        <v>-0.061</v>
-      </c>
-      <c r="X8">
+      <c r="BA8">
+        <v>0.285</v>
+      </c>
+      <c r="BB8">
+        <v>0.2</v>
+      </c>
+      <c r="BD8">
         <v>0.0</v>
       </c>
     </row>
-    <row r="9" spans="1:61">
+    <row r="9" spans="1:99">
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E9">
-        <v>17.184</v>
+        <v>16.643</v>
       </c>
       <c r="F9">
-        <v>48.675</v>
+        <v>48.705</v>
       </c>
       <c r="G9">
-        <v>0.353</v>
+        <v>0.342</v>
       </c>
       <c r="H9">
         <v>0.0</v>
       </c>
-      <c r="I9">
-        <v>0.272</v>
-      </c>
-      <c r="J9">
-        <v>0.48</v>
-      </c>
-      <c r="L9">
-        <v>0.168</v>
-      </c>
       <c r="M9">
-        <v>0.524</v>
-      </c>
-      <c r="O9">
-        <v>0.148</v>
+        <v>0.131</v>
       </c>
       <c r="Q9">
-        <v>0.06</v>
-      </c>
-      <c r="R9">
-        <v>0.08</v>
-      </c>
-      <c r="U9">
-        <v>0.227</v>
+        <v>0.47</v>
       </c>
       <c r="V9">
-        <v>0.18</v>
-      </c>
-      <c r="AA9">
-        <v>2.146</v>
-      </c>
-      <c r="AD9">
-        <v>0.354</v>
-      </c>
-      <c r="AF9">
-        <v>0.307</v>
-      </c>
-      <c r="AG9">
-        <v>0.49</v>
-      </c>
-      <c r="AJ9">
-        <v>0.081</v>
+        <v>0.994</v>
+      </c>
+      <c r="X9">
+        <v>0.548</v>
       </c>
       <c r="AK9">
-        <v>0.218</v>
-      </c>
-      <c r="AO9">
-        <v>0.245</v>
-      </c>
-      <c r="AU9">
-        <v>0.529</v>
+        <v>0.087</v>
+      </c>
+      <c r="AM9">
+        <v>0.054</v>
+      </c>
+      <c r="AT9">
+        <v>-0.075</v>
       </c>
       <c r="AX9">
-        <v>0.132</v>
-      </c>
-      <c r="AY9">
-        <v>0.25</v>
+        <v>0.265</v>
+      </c>
+      <c r="BB9">
+        <v>0.396</v>
       </c>
       <c r="BC9">
-        <v>0.382</v>
+        <v>0.241</v>
       </c>
       <c r="BF9">
-        <v>0.203</v>
+        <v>0.556</v>
       </c>
       <c r="BH9">
-        <v>0.334</v>
-      </c>
-      <c r="BI9">
+        <v>0.181</v>
+      </c>
+      <c r="BL9">
+        <v>0.147</v>
+      </c>
+      <c r="BN9">
+        <v>0.09</v>
+      </c>
+      <c r="BO9">
+        <v>0.438</v>
+      </c>
+      <c r="CA9">
+        <v>0.387</v>
+      </c>
+      <c r="CB9">
+        <v>0.188</v>
+      </c>
+      <c r="CC9">
+        <v>0.119</v>
+      </c>
+      <c r="CH9">
+        <v>0.183</v>
+      </c>
+      <c r="CI9">
+        <v>0.337</v>
+      </c>
+      <c r="CL9">
+        <v>-0.11</v>
+      </c>
+      <c r="CN9">
+        <v>0.127</v>
+      </c>
+      <c r="CT9">
+        <v>0.176</v>
+      </c>
+      <c r="CU9">
         <v>0.0</v>
       </c>
     </row>
-    <row r="10" spans="1:61">
+    <row r="10" spans="1:99">
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E10">
-        <v>16.621</v>
+        <v>17.873</v>
       </c>
       <c r="F10">
-        <v>48.68</v>
+        <v>48.705</v>
       </c>
       <c r="G10">
-        <v>0.341</v>
+        <v>0.367</v>
       </c>
       <c r="H10">
         <v>0.0</v>
       </c>
-      <c r="J10">
-        <v>0.497</v>
-      </c>
       <c r="K10">
-        <v>0.092</v>
+        <v>0.072</v>
       </c>
       <c r="M10">
-        <v>0.401</v>
-      </c>
-      <c r="N10">
-        <v>0.382</v>
-      </c>
-      <c r="S10">
-        <v>0.14</v>
+        <v>0.182</v>
+      </c>
+      <c r="P10">
+        <v>0.068</v>
       </c>
       <c r="V10">
-        <v>-0.046</v>
-      </c>
-      <c r="Y10">
-        <v>0.037</v>
+        <v>0.581</v>
       </c>
       <c r="AA10">
-        <v>0.802</v>
-      </c>
-      <c r="AB10">
-        <v>1.415</v>
-      </c>
-      <c r="AD10">
-        <v>0.368</v>
-      </c>
-      <c r="AG10">
-        <v>0.261</v>
-      </c>
-      <c r="AH10">
-        <v>0.235</v>
-      </c>
-      <c r="AJ10">
-        <v>0.469</v>
-      </c>
-      <c r="AM10">
-        <v>0.206</v>
-      </c>
-      <c r="AN10">
-        <v>-0.049</v>
-      </c>
-      <c r="AO10">
-        <v>-0.13</v>
-      </c>
-      <c r="AP10">
-        <v>0.76</v>
-      </c>
-      <c r="AS10">
-        <v>0.085</v>
+        <v>0.378</v>
+      </c>
+      <c r="AK10">
+        <v>0.097</v>
+      </c>
+      <c r="AT10">
+        <v>-0.107</v>
       </c>
       <c r="AV10">
-        <v>0.179</v>
+        <v>0.15</v>
       </c>
       <c r="AW10">
-        <v>0.294</v>
-      </c>
-      <c r="AY10">
-        <v>0.127</v>
-      </c>
-      <c r="AZ10">
-        <v>0.086</v>
-      </c>
-      <c r="BA10">
-        <v>0.137</v>
+        <v>0.149</v>
+      </c>
+      <c r="AX10">
+        <v>0.33</v>
       </c>
       <c r="BB10">
-        <v>0.229</v>
+        <v>0.333</v>
       </c>
       <c r="BC10">
-        <v>0.459</v>
-      </c>
-      <c r="BE10">
-        <v>-0.108</v>
-      </c>
-      <c r="BH10">
-        <v>0.191</v>
-      </c>
-      <c r="BI10">
+        <v>0.288</v>
+      </c>
+      <c r="BF10">
+        <v>0.255</v>
+      </c>
+      <c r="BG10">
+        <v>0.111</v>
+      </c>
+      <c r="BL10">
+        <v>0.276</v>
+      </c>
+      <c r="BM10">
+        <v>0.537</v>
+      </c>
+      <c r="BO10">
+        <v>0.089</v>
+      </c>
+      <c r="BR10">
+        <v>0.44</v>
+      </c>
+      <c r="BU10">
+        <v>0.079</v>
+      </c>
+      <c r="CA10">
+        <v>0.439</v>
+      </c>
+      <c r="CB10">
+        <v>1.321</v>
+      </c>
+      <c r="CL10">
+        <v>-0.128</v>
+      </c>
+      <c r="CS10">
+        <v>0.117</v>
+      </c>
+      <c r="CU10">
         <v>0.0</v>
       </c>
     </row>
-    <row r="11" spans="1:61">
+    <row r="11" spans="1:99">
       <c r="C11" t="s">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="E11">
-        <v>19.181</v>
+        <v>19.539</v>
       </c>
       <c r="F11">
-        <v>48.659</v>
+        <v>48.705</v>
       </c>
       <c r="G11">
-        <v>0.394</v>
+        <v>0.401</v>
       </c>
       <c r="H11">
         <v>0.0</v>
       </c>
-      <c r="I11">
-        <v>0.055</v>
-      </c>
-      <c r="J11">
+      <c r="M11">
+        <v>0.366</v>
+      </c>
+      <c r="P11">
+        <v>0.161</v>
+      </c>
+      <c r="V11">
+        <v>0.398</v>
+      </c>
+      <c r="W11">
+        <v>0.817</v>
+      </c>
+      <c r="AA11">
+        <v>0.199</v>
+      </c>
+      <c r="AJ11">
+        <v>0.076</v>
+      </c>
+      <c r="AM11">
+        <v>0.083</v>
+      </c>
+      <c r="AQ11">
+        <v>0.089</v>
+      </c>
+      <c r="AV11">
+        <v>0.109</v>
+      </c>
+      <c r="AW11">
+        <v>0.313</v>
+      </c>
+      <c r="BB11">
         <v>0.25</v>
       </c>
-      <c r="K11">
-        <v>0.113</v>
-      </c>
-      <c r="M11">
-        <v>0.478</v>
-      </c>
-      <c r="N11">
-        <v>0.204</v>
-      </c>
-      <c r="P11">
-        <v>-0.067</v>
-      </c>
-      <c r="U11">
-        <v>0.13</v>
-      </c>
-      <c r="V11">
-        <v>-0.071</v>
-      </c>
-      <c r="Y11">
-        <v>0.117</v>
-      </c>
-      <c r="AA11">
-        <v>0.176</v>
-      </c>
-      <c r="AD11">
-        <v>0.596</v>
-      </c>
-      <c r="AF11">
-        <v>0.189</v>
-      </c>
-      <c r="AG11">
-        <v>0.284</v>
-      </c>
-      <c r="AH11">
-        <v>0.265</v>
-      </c>
-      <c r="AJ11">
-        <v>0.33</v>
-      </c>
-      <c r="AL11">
-        <v>0.447</v>
-      </c>
-      <c r="AN11">
-        <v>-0.079</v>
-      </c>
-      <c r="AP11">
-        <v>0.17</v>
-      </c>
-      <c r="AQ11">
-        <v>0.087</v>
-      </c>
-      <c r="AR11">
-        <v>0.115</v>
-      </c>
-      <c r="AS11">
-        <v>0.149</v>
-      </c>
-      <c r="AT11">
-        <v>0.061</v>
-      </c>
-      <c r="AU11">
-        <v>0.844</v>
-      </c>
-      <c r="AX11">
-        <v>0.359</v>
-      </c>
-      <c r="AY11">
-        <v>0.96</v>
-      </c>
-      <c r="BB11">
-        <v>0.468</v>
-      </c>
       <c r="BC11">
-        <v>0.681</v>
-      </c>
-      <c r="BD11">
-        <v>1.826</v>
+        <v>0.27</v>
+      </c>
+      <c r="BF11">
+        <v>0.185</v>
       </c>
       <c r="BG11">
-        <v>0.119</v>
+        <v>0.922</v>
       </c>
       <c r="BH11">
-        <v>0.313</v>
-      </c>
-      <c r="BI11">
+        <v>0.491</v>
+      </c>
+      <c r="BL11">
+        <v>0.339</v>
+      </c>
+      <c r="BO11">
+        <v>0.142</v>
+      </c>
+      <c r="BR11">
+        <v>0.258</v>
+      </c>
+      <c r="BU11">
+        <v>0.072</v>
+      </c>
+      <c r="BZ11">
+        <v>0.285</v>
+      </c>
+      <c r="CA11">
+        <v>0.154</v>
+      </c>
+      <c r="CB11">
+        <v>0.174</v>
+      </c>
+      <c r="CF11">
+        <v>0.242</v>
+      </c>
+      <c r="CH11">
+        <v>0.4</v>
+      </c>
+      <c r="CK11">
+        <v>0.123</v>
+      </c>
+      <c r="CL11">
+        <v>-0.13</v>
+      </c>
+      <c r="CN11">
+        <v>2.738</v>
+      </c>
+      <c r="CR11">
+        <v>0.327</v>
+      </c>
+      <c r="CU11">
         <v>0.0</v>
       </c>
     </row>
-    <row r="12" spans="1:61">
+    <row r="12" spans="1:99">
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12">
+        <v>19.957</v>
+      </c>
+      <c r="F12">
+        <v>48.7</v>
+      </c>
+      <c r="G12">
+        <v>0.41</v>
+      </c>
+      <c r="H12">
+        <v>0.0</v>
+      </c>
+      <c r="M12">
+        <v>0.28</v>
+      </c>
+      <c r="P12">
+        <v>0.248</v>
+      </c>
+      <c r="Q12">
+        <v>0.144</v>
+      </c>
+      <c r="V12">
+        <v>0.428</v>
+      </c>
+      <c r="W12">
+        <v>1.345</v>
+      </c>
+      <c r="AK12">
+        <v>0.148</v>
+      </c>
+      <c r="AQ12">
+        <v>0.115</v>
+      </c>
+      <c r="AT12">
+        <v>-0.118</v>
+      </c>
+      <c r="AV12">
+        <v>0.198</v>
+      </c>
+      <c r="AW12">
+        <v>0.542</v>
+      </c>
+      <c r="BB12">
+        <v>0.705</v>
+      </c>
+      <c r="BC12">
+        <v>0.721</v>
+      </c>
+      <c r="BF12">
+        <v>0.269</v>
+      </c>
+      <c r="BL12">
+        <v>0.188</v>
+      </c>
+      <c r="BM12">
+        <v>0.149</v>
+      </c>
+      <c r="BO12">
+        <v>0.965</v>
+      </c>
+      <c r="BQ12">
+        <v>0.234</v>
+      </c>
+      <c r="BR12">
+        <v>0.506</v>
+      </c>
+      <c r="BX12">
+        <v>0.131</v>
+      </c>
+      <c r="CA12">
+        <v>0.426</v>
+      </c>
+      <c r="CF12">
+        <v>0.087</v>
+      </c>
+      <c r="CH12">
+        <v>0.506</v>
+      </c>
+      <c r="CK12">
+        <v>1.094</v>
+      </c>
+      <c r="CU12">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:99">
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="E12">
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13">
+        <v>15.533</v>
+      </c>
+      <c r="F13">
+        <v>48.705</v>
+      </c>
+      <c r="G13">
+        <v>0.319</v>
+      </c>
+      <c r="H13">
+        <v>0.0</v>
+      </c>
+      <c r="K13">
+        <v>0.077</v>
+      </c>
+      <c r="M13">
+        <v>0.109</v>
+      </c>
+      <c r="P13">
+        <v>0.084</v>
+      </c>
+      <c r="Q13">
+        <v>0.041</v>
+      </c>
+      <c r="V13">
+        <v>0.81</v>
+      </c>
+      <c r="X13">
+        <v>0.772</v>
+      </c>
+      <c r="AA13">
+        <v>0.095</v>
+      </c>
+      <c r="AG13">
+        <v>0.114</v>
+      </c>
+      <c r="AJ13">
+        <v>0.007</v>
+      </c>
+      <c r="AM13">
+        <v>0.136</v>
+      </c>
+      <c r="AV13">
+        <v>0.694</v>
+      </c>
+      <c r="AW13">
+        <v>0.511</v>
+      </c>
+      <c r="BB13">
+        <v>0.415</v>
+      </c>
+      <c r="BC13">
+        <v>0.384</v>
+      </c>
+      <c r="BF13">
+        <v>0.295</v>
+      </c>
+      <c r="BL13">
+        <v>0.245</v>
+      </c>
+      <c r="BN13">
+        <v>0.102</v>
+      </c>
+      <c r="BO13">
+        <v>0.149</v>
+      </c>
+      <c r="BR13">
+        <v>0.21</v>
+      </c>
+      <c r="CA13">
+        <v>0.469</v>
+      </c>
+      <c r="CB13">
+        <v>0.227</v>
+      </c>
+      <c r="CF13">
+        <v>0.09</v>
+      </c>
+      <c r="CK13">
+        <v>0.021</v>
+      </c>
+      <c r="CN13">
+        <v>0.054</v>
+      </c>
+      <c r="CU13">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:99">
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14">
+        <v>7.201</v>
+      </c>
+      <c r="F14">
+        <v>21.739</v>
+      </c>
+      <c r="G14">
+        <v>0.331</v>
+      </c>
+      <c r="H14">
+        <v>0.0</v>
+      </c>
+      <c r="M14">
+        <v>0.116</v>
+      </c>
+      <c r="P14">
+        <v>0.351</v>
+      </c>
+      <c r="Q14">
+        <v>0.069</v>
+      </c>
+      <c r="W14">
+        <v>1.523</v>
+      </c>
+      <c r="AG14">
+        <v>0.033</v>
+      </c>
+      <c r="AJ14">
+        <v>0.091</v>
+      </c>
+      <c r="AM14">
+        <v>0.102</v>
+      </c>
+      <c r="AX14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:99">
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15">
+        <v>16.735</v>
+      </c>
+      <c r="F15">
+        <v>48.716</v>
+      </c>
+      <c r="G15">
+        <v>0.344</v>
+      </c>
+      <c r="H15">
+        <v>0.0</v>
+      </c>
+      <c r="K15">
+        <v>0.278</v>
+      </c>
+      <c r="M15">
+        <v>0.211</v>
+      </c>
+      <c r="P15">
+        <v>0.107</v>
+      </c>
+      <c r="Q15">
+        <v>0.132</v>
+      </c>
+      <c r="V15">
+        <v>0.442</v>
+      </c>
+      <c r="X15">
+        <v>0.806</v>
+      </c>
+      <c r="AK15">
+        <v>0.107</v>
+      </c>
+      <c r="AM15">
+        <v>-0.053</v>
+      </c>
+      <c r="AT15">
+        <v>0.062</v>
+      </c>
+      <c r="AW15">
+        <v>0.442</v>
+      </c>
+      <c r="BB15">
+        <v>0.974</v>
+      </c>
+      <c r="BC15">
+        <v>1.11</v>
+      </c>
+      <c r="BF15">
+        <v>0.522</v>
+      </c>
+      <c r="BJ15">
+        <v>0.163</v>
+      </c>
+      <c r="BM15">
+        <v>0.287</v>
+      </c>
+      <c r="BQ15">
+        <v>0.293</v>
+      </c>
+      <c r="BU15">
+        <v>0.069</v>
+      </c>
+      <c r="BX15">
+        <v>0.552</v>
+      </c>
+      <c r="CA15">
+        <v>0.096</v>
+      </c>
+      <c r="CB15">
+        <v>0.109</v>
+      </c>
+      <c r="CC15">
+        <v>0.06</v>
+      </c>
+      <c r="CF15">
+        <v>0.339</v>
+      </c>
+      <c r="CH15">
+        <v>0.081</v>
+      </c>
+      <c r="CK15">
+        <v>0.049</v>
+      </c>
+      <c r="CP15">
+        <v>0.143</v>
+      </c>
+      <c r="CT15">
+        <v>0.107</v>
+      </c>
+      <c r="CU15">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:99">
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16">
+        <v>16.193</v>
+      </c>
+      <c r="F16">
+        <v>48.685</v>
+      </c>
+      <c r="G16">
+        <v>0.333</v>
+      </c>
+      <c r="H16">
+        <v>0.0</v>
+      </c>
+      <c r="J16">
+        <v>0.246</v>
+      </c>
+      <c r="K16">
+        <v>0.06</v>
+      </c>
+      <c r="L16">
+        <v>0.068</v>
+      </c>
+      <c r="N16">
+        <v>0.21</v>
+      </c>
+      <c r="S16">
+        <v>0.158</v>
+      </c>
+      <c r="U16">
+        <v>0.261</v>
+      </c>
+      <c r="W16">
+        <v>0.061</v>
+      </c>
+      <c r="Z16">
+        <v>0.16</v>
+      </c>
+      <c r="AA16">
+        <v>0.368</v>
+      </c>
+      <c r="AB16">
+        <v>0.529</v>
+      </c>
+      <c r="AC16">
+        <v>0.186</v>
+      </c>
+      <c r="AE16">
+        <v>0.074</v>
+      </c>
+      <c r="AI16">
+        <v>0.394</v>
+      </c>
+      <c r="AJ16">
+        <v>0.056</v>
+      </c>
+      <c r="AL16">
+        <v>-0.118</v>
+      </c>
+      <c r="AN16">
+        <v>0.395</v>
+      </c>
+      <c r="AP16">
+        <v>0.109</v>
+      </c>
+      <c r="AQ16">
+        <v>-0.129</v>
+      </c>
+      <c r="AR16">
+        <v>0.201</v>
+      </c>
+      <c r="AS16">
+        <v>0.251</v>
+      </c>
+      <c r="AU16">
+        <v>0.154</v>
+      </c>
+      <c r="BB16">
+        <v>0.237</v>
+      </c>
+      <c r="BE16">
+        <v>0.272</v>
+      </c>
+      <c r="BF16">
+        <v>0.09</v>
+      </c>
+      <c r="BI16">
+        <v>0.573</v>
+      </c>
+      <c r="BK16">
+        <v>0.135</v>
+      </c>
+      <c r="BP16">
+        <v>0.187</v>
+      </c>
+      <c r="BT16">
+        <v>-0.108</v>
+      </c>
+      <c r="BU16">
+        <v>0.155</v>
+      </c>
+      <c r="BY16">
+        <v>0.049</v>
+      </c>
+      <c r="CB16">
+        <v>0.181</v>
+      </c>
+      <c r="CD16">
+        <v>0.145</v>
+      </c>
+      <c r="CG16">
+        <v>0.265</v>
+      </c>
+      <c r="CJ16">
+        <v>0.124</v>
+      </c>
+      <c r="CK16">
+        <v>0.066</v>
+      </c>
+      <c r="CM16">
+        <v>0.141</v>
+      </c>
+      <c r="CO16">
+        <v>0.47</v>
+      </c>
+      <c r="CU16">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:99">
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17">
+        <v>11.115</v>
+      </c>
+      <c r="F17">
+        <v>32.56</v>
+      </c>
+      <c r="G17">
+        <v>0.341</v>
+      </c>
+      <c r="H17">
+        <v>0.0</v>
+      </c>
+      <c r="K17">
+        <v>0.462</v>
+      </c>
+      <c r="M17">
+        <v>0.465</v>
+      </c>
+      <c r="P17">
+        <v>0.299</v>
+      </c>
+      <c r="V17">
+        <v>0.34</v>
+      </c>
+      <c r="X17">
+        <v>0.413</v>
+      </c>
+      <c r="AA17">
+        <v>0.898</v>
+      </c>
+      <c r="AG17">
+        <v>0.041</v>
+      </c>
+      <c r="AK17">
+        <v>0.175</v>
+      </c>
+      <c r="AV17">
+        <v>0.211</v>
+      </c>
+      <c r="AX17">
+        <v>0.152</v>
+      </c>
+      <c r="BB17">
+        <v>0.315</v>
+      </c>
+      <c r="BC17">
+        <v>0.151</v>
+      </c>
+      <c r="BF17">
+        <v>0.086</v>
+      </c>
+      <c r="BH17">
+        <v>0.067</v>
+      </c>
+      <c r="BJ17">
+        <v>0.182</v>
+      </c>
+      <c r="BL17">
+        <v>0.196</v>
+      </c>
+      <c r="BN17">
+        <v>0.056</v>
+      </c>
+      <c r="BO17">
+        <v>-0.116</v>
+      </c>
+      <c r="BQ17">
+        <v>0.184</v>
+      </c>
+      <c r="BR17">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:99">
+      <c r="C18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18">
+        <v>10.581</v>
+      </c>
+      <c r="F18">
+        <v>32.601</v>
+      </c>
+      <c r="G18">
+        <v>0.325</v>
+      </c>
+      <c r="H18">
+        <v>0.0</v>
+      </c>
+      <c r="K18">
+        <v>0.202</v>
+      </c>
+      <c r="M18">
+        <v>0.307</v>
+      </c>
+      <c r="P18">
+        <v>0.203</v>
+      </c>
+      <c r="T18">
+        <v>0.079</v>
+      </c>
+      <c r="V18">
+        <v>1.019</v>
+      </c>
+      <c r="AK18">
+        <v>0.2</v>
+      </c>
+      <c r="AX18">
+        <v>0.516</v>
+      </c>
+      <c r="BB18">
+        <v>0.522</v>
+      </c>
+      <c r="BC18">
+        <v>0.227</v>
+      </c>
+      <c r="BF18">
+        <v>0.199</v>
+      </c>
+      <c r="BJ18">
+        <v>0.127</v>
+      </c>
+      <c r="BL18">
+        <v>0.297</v>
+      </c>
+      <c r="BN18">
+        <v>-0.125</v>
+      </c>
+      <c r="BO18">
+        <v>0.137</v>
+      </c>
+      <c r="BR18">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:99">
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19">
+        <v>18.653</v>
+      </c>
+      <c r="F19">
+        <v>48.721</v>
+      </c>
+      <c r="G19">
+        <v>0.383</v>
+      </c>
+      <c r="H19">
+        <v>0.0</v>
+      </c>
+      <c r="K19">
+        <v>0.176</v>
+      </c>
+      <c r="M19">
+        <v>0.675</v>
+      </c>
+      <c r="P19">
+        <v>0.257</v>
+      </c>
+      <c r="Q19">
+        <v>0.078</v>
+      </c>
+      <c r="T19">
+        <v>0.187</v>
+      </c>
+      <c r="V19">
+        <v>0.524</v>
+      </c>
+      <c r="X19">
+        <v>0.317</v>
+      </c>
+      <c r="AK19">
+        <v>0.168</v>
+      </c>
+      <c r="AX19">
+        <v>0.725</v>
+      </c>
+      <c r="AY19">
+        <v>0.128</v>
+      </c>
+      <c r="BB19">
+        <v>1.428</v>
+      </c>
+      <c r="BF19">
+        <v>0.333</v>
+      </c>
+      <c r="BH19">
+        <v>0.082</v>
+      </c>
+      <c r="BJ19">
+        <v>0.108</v>
+      </c>
+      <c r="BL19">
+        <v>0.096</v>
+      </c>
+      <c r="BN19">
+        <v>-0.056</v>
+      </c>
+      <c r="BQ19">
+        <v>0.393</v>
+      </c>
+      <c r="BW19">
+        <v>0.262</v>
+      </c>
+      <c r="CA19">
+        <v>1.431</v>
+      </c>
+      <c r="CB19">
+        <v>0.371</v>
+      </c>
+      <c r="CC19">
+        <v>0.258</v>
+      </c>
+      <c r="CF19">
+        <v>0.114</v>
+      </c>
+      <c r="CH19">
+        <v>0.074</v>
+      </c>
+      <c r="CN19">
+        <v>0.176</v>
+      </c>
+      <c r="CP19">
+        <v>0.191</v>
+      </c>
+      <c r="CQ19">
+        <v>0.389</v>
+      </c>
+      <c r="CU19">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:99">
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20">
+        <v>16.83</v>
+      </c>
+      <c r="F20">
+        <v>48.716</v>
+      </c>
+      <c r="G20">
+        <v>0.345</v>
+      </c>
+      <c r="H20">
+        <v>0.0</v>
+      </c>
+      <c r="K20">
+        <v>0.127</v>
+      </c>
+      <c r="M20">
+        <v>0.156</v>
+      </c>
+      <c r="P20">
+        <v>0.117</v>
+      </c>
+      <c r="Q20">
+        <v>0.137</v>
+      </c>
+      <c r="T20">
+        <v>0.155</v>
+      </c>
+      <c r="V20">
+        <v>2.486</v>
+      </c>
+      <c r="X20">
+        <v>0.326</v>
+      </c>
+      <c r="AK20">
+        <v>0.142</v>
+      </c>
+      <c r="AQ20">
+        <v>0.068</v>
+      </c>
+      <c r="AT20">
+        <v>0.179</v>
+      </c>
+      <c r="AX20">
+        <v>0.197</v>
+      </c>
+      <c r="BB20">
+        <v>0.718</v>
+      </c>
+      <c r="BF20">
+        <v>0.204</v>
+      </c>
+      <c r="BJ20">
+        <v>0.098</v>
+      </c>
+      <c r="BL20">
+        <v>0.387</v>
+      </c>
+      <c r="BN20">
+        <v>0.137</v>
+      </c>
+      <c r="BQ20">
+        <v>0.347</v>
+      </c>
+      <c r="BW20">
+        <v>0.108</v>
+      </c>
+      <c r="CA20">
+        <v>0.153</v>
+      </c>
+      <c r="CB20">
+        <v>0.198</v>
+      </c>
+      <c r="CE20">
+        <v>0.351</v>
+      </c>
+      <c r="CF20">
+        <v>0.141</v>
+      </c>
+      <c r="CH20">
+        <v>0.073</v>
+      </c>
+      <c r="CI20">
+        <v>0.1</v>
+      </c>
+      <c r="CL20">
+        <v>0.103</v>
+      </c>
+      <c r="CN20">
+        <v>0.263</v>
+      </c>
+      <c r="CT20">
+        <v>0.285</v>
+      </c>
+      <c r="CU20">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:99">
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21">
+        <v>16.528</v>
+      </c>
+      <c r="F21">
+        <v>48.716</v>
+      </c>
+      <c r="G21">
+        <v>0.339</v>
+      </c>
+      <c r="H21">
+        <v>0.0</v>
+      </c>
+      <c r="K21">
+        <v>0.404</v>
+      </c>
+      <c r="M21">
+        <v>0.1</v>
+      </c>
+      <c r="P21">
+        <v>0.114</v>
+      </c>
+      <c r="Q21">
+        <v>0.214</v>
+      </c>
+      <c r="T21">
+        <v>0.058</v>
+      </c>
+      <c r="V21">
+        <v>0.559</v>
+      </c>
+      <c r="X21">
+        <v>0.894</v>
+      </c>
+      <c r="AG21">
+        <v>0.081</v>
+      </c>
+      <c r="AK21">
+        <v>0.192</v>
+      </c>
+      <c r="BB21">
+        <v>0.432</v>
+      </c>
+      <c r="BC21">
+        <v>0.355</v>
+      </c>
+      <c r="BF21">
+        <v>0.225</v>
+      </c>
+      <c r="BG21">
+        <v>0.298</v>
+      </c>
+      <c r="BJ21">
+        <v>0.252</v>
+      </c>
+      <c r="BL21">
+        <v>0.445</v>
+      </c>
+      <c r="BN21">
+        <v>-0.108</v>
+      </c>
+      <c r="BQ21">
+        <v>0.529</v>
+      </c>
+      <c r="BU21">
+        <v>0.066</v>
+      </c>
+      <c r="BX21">
+        <v>0.1</v>
+      </c>
+      <c r="CA21">
+        <v>0.28</v>
+      </c>
+      <c r="CB21">
+        <v>0.143</v>
+      </c>
+      <c r="CC21">
+        <v>0.244</v>
+      </c>
+      <c r="CE21">
+        <v>0.466</v>
+      </c>
+      <c r="CF21">
+        <v>0.378</v>
+      </c>
+      <c r="CH21">
+        <v>0.205</v>
+      </c>
+      <c r="CK21">
+        <v>0.085</v>
+      </c>
+      <c r="CL21">
+        <v>-0.153</v>
+      </c>
+      <c r="CT21">
+        <v>0.146</v>
+      </c>
+      <c r="CU21">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:99">
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22">
+        <v>14.819</v>
+      </c>
+      <c r="F22">
+        <v>32.555</v>
+      </c>
+      <c r="G22">
+        <v>0.455</v>
+      </c>
+      <c r="H22">
+        <v>0.0</v>
+      </c>
+      <c r="K22">
+        <v>0.156</v>
+      </c>
+      <c r="M22">
+        <v>0.283</v>
+      </c>
+      <c r="P22">
+        <v>0.158</v>
+      </c>
+      <c r="Q22">
+        <v>0.046</v>
+      </c>
+      <c r="T22">
+        <v>0.743</v>
+      </c>
+      <c r="X22">
+        <v>0.557</v>
+      </c>
+      <c r="AG22">
+        <v>0.038</v>
+      </c>
+      <c r="AJ22">
+        <v>0.385</v>
+      </c>
+      <c r="AM22">
+        <v>0.051</v>
+      </c>
+      <c r="AQ22">
+        <v>0.076</v>
+      </c>
+      <c r="AT22">
+        <v>-0.184</v>
+      </c>
+      <c r="AW22">
+        <v>0.118</v>
+      </c>
+      <c r="AX22">
+        <v>0.636</v>
+      </c>
+      <c r="AY22">
+        <v>0.277</v>
+      </c>
+      <c r="BB22">
+        <v>1.881</v>
+      </c>
+      <c r="BC22">
+        <v>0.213</v>
+      </c>
+      <c r="BF22">
+        <v>0.416</v>
+      </c>
+      <c r="BJ22">
+        <v>1.204</v>
+      </c>
+      <c r="BL22">
+        <v>0.285</v>
+      </c>
+      <c r="BN22">
+        <v>0.076</v>
+      </c>
+      <c r="BQ22">
+        <v>0.167</v>
+      </c>
+      <c r="BR22">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:99">
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23">
+        <v>11.452</v>
+      </c>
+      <c r="F23">
+        <v>34.408</v>
+      </c>
+      <c r="G23">
+        <v>0.333</v>
+      </c>
+      <c r="H23">
+        <v>0.0</v>
+      </c>
+      <c r="K23">
+        <v>0.137</v>
+      </c>
+      <c r="M23">
+        <v>0.16</v>
+      </c>
+      <c r="P23">
+        <v>0.114</v>
+      </c>
+      <c r="Q23">
+        <v>-0.175</v>
+      </c>
+      <c r="AA23">
+        <v>0.232</v>
+      </c>
+      <c r="AG23">
+        <v>0.069</v>
+      </c>
+      <c r="AJ23">
+        <v>0.65</v>
+      </c>
+      <c r="AX23">
+        <v>0.409</v>
+      </c>
+      <c r="AY23">
+        <v>0.086</v>
+      </c>
+      <c r="BB23">
+        <v>0.896</v>
+      </c>
+      <c r="BC23">
+        <v>0.354</v>
+      </c>
+      <c r="BF23">
+        <v>0.311</v>
+      </c>
+      <c r="BJ23">
+        <v>0.156</v>
+      </c>
+      <c r="BL23">
+        <v>0.401</v>
+      </c>
+      <c r="BO23">
+        <v>0.028</v>
+      </c>
+      <c r="BS23">
+        <v>0.057</v>
+      </c>
+      <c r="BU23">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:99">
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24">
+        <v>12.954</v>
+      </c>
+      <c r="F24">
+        <v>32.555</v>
+      </c>
+      <c r="G24">
+        <v>0.398</v>
+      </c>
+      <c r="H24">
+        <v>0.0</v>
+      </c>
+      <c r="K24">
+        <v>0.457</v>
+      </c>
+      <c r="M24">
+        <v>0.34</v>
+      </c>
+      <c r="P24">
+        <v>1.254</v>
+      </c>
+      <c r="Q24">
+        <v>0.083</v>
+      </c>
+      <c r="V24">
+        <v>1.645</v>
+      </c>
+      <c r="AG24">
+        <v>-0.071</v>
+      </c>
+      <c r="AJ24">
+        <v>0.476</v>
+      </c>
+      <c r="AM24">
+        <v>0.019</v>
+      </c>
+      <c r="AT24">
+        <v>-0.06</v>
+      </c>
+      <c r="AX24">
+        <v>0.614</v>
+      </c>
+      <c r="BB24">
+        <v>0.625</v>
+      </c>
+      <c r="BC24">
+        <v>0.316</v>
+      </c>
+      <c r="BF24">
+        <v>0.325</v>
+      </c>
+      <c r="BJ24">
+        <v>0.153</v>
+      </c>
+      <c r="BM24">
+        <v>0.194</v>
+      </c>
+      <c r="BN24">
+        <v>0.066</v>
+      </c>
+      <c r="BQ24">
+        <v>0.285</v>
+      </c>
+      <c r="BR24">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:99">
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25">
+        <v>16.938</v>
+      </c>
+      <c r="F25">
+        <v>48.71</v>
+      </c>
+      <c r="G25">
+        <v>0.348</v>
+      </c>
+      <c r="H25">
+        <v>0.0</v>
+      </c>
+      <c r="K25">
+        <v>0.668</v>
+      </c>
+      <c r="M25">
+        <v>0.229</v>
+      </c>
+      <c r="P25">
+        <v>0.237</v>
+      </c>
+      <c r="T25">
+        <v>0.167</v>
+      </c>
+      <c r="V25">
+        <v>0.26</v>
+      </c>
+      <c r="W25">
+        <v>1.281</v>
+      </c>
+      <c r="AJ25">
+        <v>0.152</v>
+      </c>
+      <c r="AM25">
+        <v>0.196</v>
+      </c>
+      <c r="AT25">
+        <v>-0.093</v>
+      </c>
+      <c r="AV25">
+        <v>0.118</v>
+      </c>
+      <c r="AW25">
+        <v>-0.068</v>
+      </c>
+      <c r="AX25">
+        <v>0.464</v>
+      </c>
+      <c r="BB25">
+        <v>0.366</v>
+      </c>
+      <c r="BC25">
+        <v>0.423</v>
+      </c>
+      <c r="BF25">
+        <v>0.329</v>
+      </c>
+      <c r="BJ25">
+        <v>0.109</v>
+      </c>
+      <c r="BL25">
+        <v>0.108</v>
+      </c>
+      <c r="BQ25">
+        <v>0.292</v>
+      </c>
+      <c r="BS25">
+        <v>0.258</v>
+      </c>
+      <c r="BV25">
+        <v>0.041</v>
+      </c>
+      <c r="BZ25">
+        <v>0.052</v>
+      </c>
+      <c r="CA25">
+        <v>0.42</v>
+      </c>
+      <c r="CB25">
+        <v>0.379</v>
+      </c>
+      <c r="CF25">
+        <v>0.14</v>
+      </c>
+      <c r="CH25">
+        <v>0.167</v>
+      </c>
+      <c r="CN25">
+        <v>0.173</v>
+      </c>
+      <c r="CP25">
+        <v>0.061</v>
+      </c>
+      <c r="CT25">
+        <v>0.253</v>
+      </c>
+      <c r="CU25">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:99">
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26">
+        <v>17.127</v>
+      </c>
+      <c r="F26">
+        <v>48.71</v>
+      </c>
+      <c r="G26">
+        <v>0.352</v>
+      </c>
+      <c r="H26">
+        <v>0.0</v>
+      </c>
+      <c r="K26">
+        <v>0.28</v>
+      </c>
+      <c r="M26">
+        <v>0.328</v>
+      </c>
+      <c r="P26">
+        <v>0.272</v>
+      </c>
+      <c r="Q26">
+        <v>0.08</v>
+      </c>
+      <c r="V26">
+        <v>1.03</v>
+      </c>
+      <c r="AK26">
+        <v>0.152</v>
+      </c>
+      <c r="AM26">
+        <v>0.078</v>
+      </c>
+      <c r="AO26">
+        <v>0.042</v>
+      </c>
+      <c r="AQ26">
+        <v>0.059</v>
+      </c>
+      <c r="AX26">
+        <v>0.407</v>
+      </c>
+      <c r="AY26">
+        <v>0.255</v>
+      </c>
+      <c r="BB26">
+        <v>0.459</v>
+      </c>
+      <c r="BC26">
+        <v>0.583</v>
+      </c>
+      <c r="BF26">
+        <v>0.279</v>
+      </c>
+      <c r="BH26">
+        <v>0.059</v>
+      </c>
+      <c r="BJ26">
+        <v>0.167</v>
+      </c>
+      <c r="BL26">
+        <v>0.197</v>
+      </c>
+      <c r="BM26">
+        <v>0.394</v>
+      </c>
+      <c r="BN26">
+        <v>-0.147</v>
+      </c>
+      <c r="BQ26">
+        <v>0.567</v>
+      </c>
+      <c r="BX26">
+        <v>0.126</v>
+      </c>
+      <c r="CA26">
+        <v>0.134</v>
+      </c>
+      <c r="CB26">
+        <v>0.179</v>
+      </c>
+      <c r="CC26">
+        <v>0.201</v>
+      </c>
+      <c r="CF26">
+        <v>0.31</v>
+      </c>
+      <c r="CL26">
+        <v>-0.118</v>
+      </c>
+      <c r="CN26">
+        <v>0.094</v>
+      </c>
+      <c r="CT26">
+        <v>0.69</v>
+      </c>
+      <c r="CU26">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:99">
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27">
+        <v>20.779</v>
+      </c>
+      <c r="F27">
+        <v>44.974</v>
+      </c>
+      <c r="G27">
+        <v>0.462</v>
+      </c>
+      <c r="H27">
+        <v>0.0</v>
+      </c>
+      <c r="K27">
+        <v>0.047</v>
+      </c>
+      <c r="M27">
+        <v>1.07</v>
+      </c>
+      <c r="P27">
+        <v>0.623</v>
+      </c>
+      <c r="T27">
+        <v>0.201</v>
+      </c>
+      <c r="W27">
+        <v>0.209</v>
+      </c>
+      <c r="AA27">
+        <v>0.057</v>
+      </c>
+      <c r="AD27">
+        <v>0.049</v>
+      </c>
+      <c r="AG27">
+        <v>0.137</v>
+      </c>
+      <c r="AK27">
+        <v>0.133</v>
+      </c>
+      <c r="AQ27">
+        <v>0.087</v>
+      </c>
+      <c r="AV27">
+        <v>4.523</v>
+      </c>
+      <c r="AW27">
+        <v>0.891</v>
+      </c>
+      <c r="BB27">
+        <v>2.003</v>
+      </c>
+      <c r="BF27">
+        <v>0.227</v>
+      </c>
+      <c r="BJ27">
+        <v>0.193</v>
+      </c>
+      <c r="BL27">
+        <v>0.196</v>
+      </c>
+      <c r="BQ27">
+        <v>0.119</v>
+      </c>
+      <c r="BW27">
+        <v>0.116</v>
+      </c>
+      <c r="CA27">
+        <v>0.31</v>
+      </c>
+      <c r="CB27">
+        <v>0.508</v>
+      </c>
+      <c r="CC27">
+        <v>0.124</v>
+      </c>
+      <c r="CF27">
+        <v>0.123</v>
+      </c>
+      <c r="CI27">
+        <v>0.406</v>
+      </c>
+      <c r="CL27">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:99">
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28">
+        <v>16.711</v>
+      </c>
+      <c r="F28">
+        <v>48.675</v>
+      </c>
+      <c r="G28">
+        <v>0.343</v>
+      </c>
+      <c r="H28">
+        <v>0.0</v>
+      </c>
+      <c r="L28">
+        <v>-0.074</v>
+      </c>
+      <c r="P28">
+        <v>0.166</v>
+      </c>
+      <c r="R28">
+        <v>-0.061</v>
+      </c>
+      <c r="S28">
+        <v>0.105</v>
+      </c>
+      <c r="U28">
+        <v>0.269</v>
+      </c>
+      <c r="W28">
+        <v>0.382</v>
+      </c>
+      <c r="Y28">
+        <v>0.083</v>
+      </c>
+      <c r="AA28">
+        <v>0.275</v>
+      </c>
+      <c r="AB28">
+        <v>0.684</v>
+      </c>
+      <c r="AC28">
+        <v>0.144</v>
+      </c>
+      <c r="AE28">
+        <v>0.112</v>
+      </c>
+      <c r="AH28">
+        <v>0.103</v>
+      </c>
+      <c r="AJ28">
+        <v>0.206</v>
+      </c>
+      <c r="AL28">
+        <v>-0.109</v>
+      </c>
+      <c r="AN28">
+        <v>0.261</v>
+      </c>
+      <c r="AQ28">
+        <v>0.118</v>
+      </c>
+      <c r="AS28">
+        <v>0.103</v>
+      </c>
+      <c r="AU28">
+        <v>0.156</v>
+      </c>
+      <c r="AZ28">
+        <v>0.211</v>
+      </c>
+      <c r="BB28">
+        <v>0.44</v>
+      </c>
+      <c r="BF28">
+        <v>0.143</v>
+      </c>
+      <c r="BI28">
+        <v>1.626</v>
+      </c>
+      <c r="BK28">
+        <v>0.212</v>
+      </c>
+      <c r="BM28">
+        <v>0.059</v>
+      </c>
+      <c r="BP28">
+        <v>-0.058</v>
+      </c>
+      <c r="BU28">
+        <v>0.142</v>
+      </c>
+      <c r="BY28">
+        <v>0.526</v>
+      </c>
+      <c r="CB28">
+        <v>-0.107</v>
+      </c>
+      <c r="CD28">
+        <v>0.168</v>
+      </c>
+      <c r="CJ28">
+        <v>0.138</v>
+      </c>
+      <c r="CK28">
+        <v>0.076</v>
+      </c>
+      <c r="CM28">
+        <v>0.265</v>
+      </c>
+      <c r="CU28">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:99">
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29">
+        <v>6.397</v>
+      </c>
+      <c r="F29">
+        <v>20.08</v>
+      </c>
+      <c r="G29">
+        <v>0.319</v>
+      </c>
+      <c r="H29">
+        <v>0.0</v>
+      </c>
+      <c r="K29">
+        <v>0.136</v>
+      </c>
+      <c r="L29">
+        <v>0.815</v>
+      </c>
+      <c r="M29">
+        <v>0.167</v>
+      </c>
+      <c r="P29">
+        <v>0.429</v>
+      </c>
+      <c r="Q29">
+        <v>0.037</v>
+      </c>
+      <c r="W29">
+        <v>0.328</v>
+      </c>
+      <c r="AA29">
+        <v>0.129</v>
+      </c>
+      <c r="AG29">
+        <v>0.133</v>
+      </c>
+      <c r="AM29">
+        <v>0.128</v>
+      </c>
+      <c r="AT29">
+        <v>0.0</v>
+      </c>
+      <c r="CU29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:99">
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30">
+        <v>15.496</v>
+      </c>
+      <c r="F30">
+        <v>48.695</v>
+      </c>
+      <c r="G30">
+        <v>0.318</v>
+      </c>
+      <c r="H30">
+        <v>0.0</v>
+      </c>
+      <c r="K30">
+        <v>0.064</v>
+      </c>
+      <c r="M30">
+        <v>0.152</v>
+      </c>
+      <c r="P30">
+        <v>0.146</v>
+      </c>
+      <c r="Q30">
+        <v>0.243</v>
+      </c>
+      <c r="W30">
+        <v>0.422</v>
+      </c>
+      <c r="AA30">
+        <v>0.066</v>
+      </c>
+      <c r="AG30">
+        <v>0.078</v>
+      </c>
+      <c r="AJ30">
+        <v>0.201</v>
+      </c>
+      <c r="AM30">
+        <v>0.083</v>
+      </c>
+      <c r="AQ30">
+        <v>0.251</v>
+      </c>
+      <c r="AX30">
+        <v>0.069</v>
+      </c>
+      <c r="BB30">
+        <v>0.222</v>
+      </c>
+      <c r="BC30">
+        <v>0.23</v>
+      </c>
+      <c r="BF30">
+        <v>0.157</v>
+      </c>
+      <c r="BG30">
+        <v>0.492</v>
+      </c>
+      <c r="BJ30">
+        <v>0.178</v>
+      </c>
+      <c r="BL30">
+        <v>0.821</v>
+      </c>
+      <c r="BQ30">
+        <v>0.46</v>
+      </c>
+      <c r="BW30">
+        <v>0.125</v>
+      </c>
+      <c r="BZ30">
+        <v>0.126</v>
+      </c>
+      <c r="CA30">
+        <v>0.193</v>
+      </c>
+      <c r="CB30">
+        <v>0.233</v>
+      </c>
+      <c r="CC30">
+        <v>0.152</v>
+      </c>
+      <c r="CF30">
+        <v>0.551</v>
+      </c>
+      <c r="CH30">
+        <v>0.073</v>
+      </c>
+      <c r="CI30">
+        <v>0.061</v>
+      </c>
+      <c r="CL30">
+        <v>0.108</v>
+      </c>
+      <c r="CN30">
+        <v>0.105</v>
+      </c>
+      <c r="CT30">
+        <v>0.136</v>
+      </c>
+      <c r="CU30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:99">
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31">
+        <v>15.363</v>
+      </c>
+      <c r="F31">
+        <v>44.984</v>
+      </c>
+      <c r="G31">
+        <v>0.342</v>
+      </c>
+      <c r="H31">
+        <v>0.0</v>
+      </c>
+      <c r="M31">
+        <v>0.067</v>
+      </c>
+      <c r="P31">
+        <v>0.107</v>
+      </c>
+      <c r="Q31">
+        <v>0.187</v>
+      </c>
+      <c r="W31">
+        <v>0.232</v>
+      </c>
+      <c r="AF31">
+        <v>0.036</v>
+      </c>
+      <c r="AJ31">
+        <v>0.139</v>
+      </c>
+      <c r="AM31">
+        <v>0.08</v>
+      </c>
+      <c r="AQ31">
+        <v>0.143</v>
+      </c>
+      <c r="AT31">
+        <v>0.262</v>
+      </c>
+      <c r="AW31">
+        <v>-0.056</v>
+      </c>
+      <c r="BB31">
+        <v>0.906</v>
+      </c>
+      <c r="BF31">
+        <v>0.131</v>
+      </c>
+      <c r="BG31">
+        <v>0.904</v>
+      </c>
+      <c r="BH31">
+        <v>0.147</v>
+      </c>
+      <c r="BJ31">
+        <v>0.26</v>
+      </c>
+      <c r="BL31">
+        <v>0.47</v>
+      </c>
+      <c r="BN31">
+        <v>-0.099</v>
+      </c>
+      <c r="BR31">
+        <v>0.787</v>
+      </c>
+      <c r="BS31">
+        <v>0.221</v>
+      </c>
+      <c r="BU31">
+        <v>0.104</v>
+      </c>
+      <c r="BX31">
+        <v>0.062</v>
+      </c>
+      <c r="CA31">
+        <v>0.234</v>
+      </c>
+      <c r="CB31">
+        <v>0.333</v>
+      </c>
+      <c r="CF31">
+        <v>0.174</v>
+      </c>
+      <c r="CH31">
+        <v>0.219</v>
+      </c>
+      <c r="CI31">
+        <v>-0.05</v>
+      </c>
+      <c r="CK31">
+        <v>0.13</v>
+      </c>
+      <c r="CL31">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:99">
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32">
+        <v>14.453</v>
+      </c>
+      <c r="F32">
+        <v>48.7</v>
+      </c>
+      <c r="G32">
+        <v>0.297</v>
+      </c>
+      <c r="H32">
+        <v>0.0</v>
+      </c>
+      <c r="M32">
+        <v>0.675</v>
+      </c>
+      <c r="T32">
+        <v>0.049</v>
+      </c>
+      <c r="W32">
+        <v>0.2</v>
+      </c>
+      <c r="AA32">
+        <v>0.085</v>
+      </c>
+      <c r="AK32">
+        <v>0.154</v>
+      </c>
+      <c r="AT32">
+        <v>0.168</v>
+      </c>
+      <c r="AW32">
+        <v>0.147</v>
+      </c>
+      <c r="BB32">
+        <v>0.65</v>
+      </c>
+      <c r="BC32">
+        <v>0.38</v>
+      </c>
+      <c r="BF32">
+        <v>0.254</v>
+      </c>
+      <c r="BG32">
+        <v>0.234</v>
+      </c>
+      <c r="BJ32">
+        <v>0.262</v>
+      </c>
+      <c r="BL32">
+        <v>0.202</v>
+      </c>
+      <c r="BN32">
+        <v>-0.081</v>
+      </c>
+      <c r="BO32">
+        <v>0.075</v>
+      </c>
+      <c r="BR32">
+        <v>0.114</v>
+      </c>
+      <c r="BU32">
+        <v>0.281</v>
+      </c>
+      <c r="BZ32">
+        <v>0.087</v>
+      </c>
+      <c r="CA32">
+        <v>0.22</v>
+      </c>
+      <c r="CB32">
+        <v>0.305</v>
+      </c>
+      <c r="CF32">
+        <v>0.104</v>
+      </c>
+      <c r="CH32">
+        <v>0.109</v>
+      </c>
+      <c r="CI32">
+        <v>0.124</v>
+      </c>
+      <c r="CL32">
+        <v>-0.073</v>
+      </c>
+      <c r="CN32">
+        <v>0.144</v>
+      </c>
+      <c r="CT32">
+        <v>0.162</v>
+      </c>
+      <c r="CU32">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:99">
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33">
+        <v>8.478</v>
+      </c>
+      <c r="F33">
+        <v>22.883</v>
+      </c>
+      <c r="G33">
+        <v>0.37</v>
+      </c>
+      <c r="H33">
+        <v>0.0</v>
+      </c>
+      <c r="M33">
+        <v>0.748</v>
+      </c>
+      <c r="P33">
+        <v>0.097</v>
+      </c>
+      <c r="Q33">
+        <v>0.126</v>
+      </c>
+      <c r="T33">
+        <v>0.118</v>
+      </c>
+      <c r="W33">
+        <v>0.218</v>
+      </c>
+      <c r="AA33">
+        <v>0.113</v>
+      </c>
+      <c r="AG33">
+        <v>0.057</v>
+      </c>
+      <c r="AJ33">
+        <v>0.306</v>
+      </c>
+      <c r="AM33">
+        <v>-0.118</v>
+      </c>
+      <c r="AQ33">
+        <v>0.444</v>
+      </c>
+      <c r="AT33">
+        <v>0.157</v>
+      </c>
+      <c r="AV33">
+        <v>0.266</v>
+      </c>
+      <c r="AW33">
+        <v>1.62</v>
+      </c>
+      <c r="AZ33">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:99">
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34">
+        <v>15.993</v>
+      </c>
+      <c r="F34">
+        <v>44.964</v>
+      </c>
+      <c r="G34">
+        <v>0.356</v>
+      </c>
+      <c r="H34">
+        <v>0.0</v>
+      </c>
+      <c r="K34">
+        <v>0.09</v>
+      </c>
+      <c r="L34">
+        <v>0.477</v>
+      </c>
+      <c r="M34">
+        <v>1.095</v>
+      </c>
+      <c r="P34">
+        <v>0.093</v>
+      </c>
+      <c r="Q34">
+        <v>0.069</v>
+      </c>
+      <c r="W34">
+        <v>0.261</v>
+      </c>
+      <c r="AA34">
+        <v>0.052</v>
+      </c>
+      <c r="AK34">
+        <v>0.051</v>
+      </c>
+      <c r="AT34">
+        <v>0.644</v>
+      </c>
+      <c r="AW34">
+        <v>0.601</v>
+      </c>
+      <c r="BB34">
+        <v>0.202</v>
+      </c>
+      <c r="BC34">
+        <v>1.041</v>
+      </c>
+      <c r="BF34">
+        <v>0.144</v>
+      </c>
+      <c r="BH34">
+        <v>0.108</v>
+      </c>
+      <c r="BJ34">
+        <v>0.33</v>
+      </c>
+      <c r="BM34">
+        <v>0.092</v>
+      </c>
+      <c r="BS34">
+        <v>0.398</v>
+      </c>
+      <c r="BW34">
+        <v>0.15</v>
+      </c>
+      <c r="CA34">
+        <v>0.145</v>
+      </c>
+      <c r="CB34">
+        <v>0.097</v>
+      </c>
+      <c r="CC34">
+        <v>0.109</v>
+      </c>
+      <c r="CE34">
+        <v>0.077</v>
+      </c>
+      <c r="CF34">
+        <v>0.071</v>
+      </c>
+      <c r="CH34">
+        <v>0.153</v>
+      </c>
+      <c r="CI34">
+        <v>0.481</v>
+      </c>
+      <c r="CK34">
+        <v>0.211</v>
+      </c>
+      <c r="CL34">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:99">
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35">
+        <v>4.168</v>
+      </c>
+      <c r="F35">
+        <v>12.383</v>
+      </c>
+      <c r="G35">
+        <v>0.337</v>
+      </c>
+      <c r="H35">
+        <v>0.0</v>
+      </c>
+      <c r="K35">
+        <v>0.074</v>
+      </c>
+      <c r="M35">
+        <v>0.569</v>
+      </c>
+      <c r="P35">
+        <v>0.181</v>
+      </c>
+      <c r="Q35">
+        <v>0.087</v>
+      </c>
+      <c r="W35">
+        <v>0.285</v>
+      </c>
+      <c r="AA35">
+        <v>0.7</v>
+      </c>
+      <c r="AG35">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:99">
+      <c r="C36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36">
+        <v>8.228</v>
+      </c>
+      <c r="F36">
+        <v>29.585</v>
+      </c>
+      <c r="G36">
+        <v>0.278</v>
+      </c>
+      <c r="H36">
+        <v>0.0</v>
+      </c>
+      <c r="M36">
+        <v>0.082</v>
+      </c>
+      <c r="P36">
+        <v>0.091</v>
+      </c>
+      <c r="Q36">
+        <v>0.131</v>
+      </c>
+      <c r="T36">
+        <v>0.053</v>
+      </c>
+      <c r="W36">
+        <v>0.248</v>
+      </c>
+      <c r="AJ36">
+        <v>0.169</v>
+      </c>
+      <c r="AQ36">
+        <v>0.063</v>
+      </c>
+      <c r="AT36">
+        <v>0.107</v>
+      </c>
+      <c r="BB36">
+        <v>0.413</v>
+      </c>
+      <c r="BC36">
+        <v>0.652</v>
+      </c>
+      <c r="BF36">
+        <v>0.151</v>
+      </c>
+      <c r="BG36">
+        <v>0.359</v>
+      </c>
+      <c r="BJ36">
+        <v>0.17</v>
+      </c>
+      <c r="BL36">
+        <v>0.169</v>
+      </c>
+      <c r="BM36">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:99">
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37">
+        <v>16.462</v>
+      </c>
+      <c r="F37">
+        <v>48.685</v>
+      </c>
+      <c r="G37">
+        <v>0.338</v>
+      </c>
+      <c r="H37">
+        <v>0.0</v>
+      </c>
+      <c r="K37">
+        <v>0.502</v>
+      </c>
+      <c r="M37">
+        <v>0.204</v>
+      </c>
+      <c r="P37">
+        <v>0.227</v>
+      </c>
+      <c r="T37">
+        <v>0.135</v>
+      </c>
+      <c r="W37">
+        <v>0.165</v>
+      </c>
+      <c r="AA37">
+        <v>0.043</v>
+      </c>
+      <c r="AJ37">
+        <v>0.06</v>
+      </c>
+      <c r="BB37">
+        <v>0.262</v>
+      </c>
+      <c r="BC37">
+        <v>2.205</v>
+      </c>
+      <c r="BF37">
+        <v>0.168</v>
+      </c>
+      <c r="BG37">
+        <v>0.309</v>
+      </c>
+      <c r="BL37">
+        <v>0.236</v>
+      </c>
+      <c r="BO37">
+        <v>0.128</v>
+      </c>
+      <c r="CA37">
+        <v>0.133</v>
+      </c>
+      <c r="CB37">
+        <v>0.145</v>
+      </c>
+      <c r="CC37">
+        <v>0.126</v>
+      </c>
+      <c r="CF37">
+        <v>0.176</v>
+      </c>
+      <c r="CH37">
+        <v>0.12</v>
+      </c>
+      <c r="CI37">
+        <v>0.049</v>
+      </c>
+      <c r="CL37">
+        <v>-0.11</v>
+      </c>
+      <c r="CN37">
+        <v>0.474</v>
+      </c>
+      <c r="CT37">
+        <v>0.278</v>
+      </c>
+      <c r="CU37">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:99">
+      <c r="C38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38">
+        <v>5.232</v>
+      </c>
+      <c r="F38">
+        <v>20.05</v>
+      </c>
+      <c r="G38">
+        <v>0.261</v>
+      </c>
+      <c r="H38">
+        <v>0.0</v>
+      </c>
+      <c r="M38">
+        <v>0.255</v>
+      </c>
+      <c r="P38">
+        <v>0.117</v>
+      </c>
+      <c r="Q38">
+        <v>0.178</v>
+      </c>
+      <c r="T38">
+        <v>0.056</v>
+      </c>
+      <c r="W38">
+        <v>0.21</v>
+      </c>
+      <c r="AA38">
+        <v>0.118</v>
+      </c>
+      <c r="AG38">
+        <v>0.513</v>
+      </c>
+      <c r="AJ38">
+        <v>0.001</v>
+      </c>
+      <c r="AM38">
+        <v>0.104</v>
+      </c>
+      <c r="AQ38">
+        <v>0.046</v>
+      </c>
+      <c r="AT38">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:99">
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39">
+        <v>19.958</v>
+      </c>
+      <c r="F39">
+        <v>48.68</v>
+      </c>
+      <c r="G39">
+        <v>0.41</v>
+      </c>
+      <c r="H39">
+        <v>0.0</v>
+      </c>
+      <c r="K39">
+        <v>0.624</v>
+      </c>
+      <c r="M39">
+        <v>1.169</v>
+      </c>
+      <c r="P39">
+        <v>0.127</v>
+      </c>
+      <c r="Q39">
+        <v>0.436</v>
+      </c>
+      <c r="T39">
+        <v>0.077</v>
+      </c>
+      <c r="W39">
+        <v>0.211</v>
+      </c>
+      <c r="AA39">
+        <v>0.119</v>
+      </c>
+      <c r="AG39">
+        <v>1.165</v>
+      </c>
+      <c r="AK39">
+        <v>0.094</v>
+      </c>
+      <c r="AM39">
+        <v>0.068</v>
+      </c>
+      <c r="AT39">
+        <v>0.051</v>
+      </c>
+      <c r="AW39">
+        <v>2.825</v>
+      </c>
+      <c r="BB39">
+        <v>0.306</v>
+      </c>
+      <c r="BF39">
+        <v>0.306</v>
+      </c>
+      <c r="BL39">
+        <v>0.23</v>
+      </c>
+      <c r="BN39">
+        <v>0.559</v>
+      </c>
+      <c r="BO39">
+        <v>0.194</v>
+      </c>
+      <c r="BQ39">
+        <v>0.239</v>
+      </c>
+      <c r="BW39">
+        <v>0.041</v>
+      </c>
+      <c r="CA39">
+        <v>0.273</v>
+      </c>
+      <c r="CC39">
+        <v>0.157</v>
+      </c>
+      <c r="CI39">
+        <v>0.152</v>
+      </c>
+      <c r="CL39">
+        <v>0.211</v>
+      </c>
+      <c r="CU39">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:99">
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40">
+        <v>19.77</v>
+      </c>
+      <c r="F40">
+        <v>48.68</v>
+      </c>
+      <c r="G40">
+        <v>0.406</v>
+      </c>
+      <c r="H40">
+        <v>0.0</v>
+      </c>
+      <c r="M40">
+        <v>0.902</v>
+      </c>
+      <c r="P40">
+        <v>0.125</v>
+      </c>
+      <c r="Q40">
+        <v>0.396</v>
+      </c>
+      <c r="W40">
+        <v>0.195</v>
+      </c>
+      <c r="AA40">
+        <v>0.096</v>
+      </c>
+      <c r="AG40">
+        <v>1.162</v>
+      </c>
+      <c r="AK40">
+        <v>0.092</v>
+      </c>
+      <c r="AW40">
+        <v>2.844</v>
+      </c>
+      <c r="BB40">
+        <v>0.131</v>
+      </c>
+      <c r="BC40">
+        <v>0.162</v>
+      </c>
+      <c r="BF40">
+        <v>0.314</v>
+      </c>
+      <c r="BL40">
+        <v>0.223</v>
+      </c>
+      <c r="BN40">
+        <v>0.573</v>
+      </c>
+      <c r="BO40">
+        <v>0.205</v>
+      </c>
+      <c r="BQ40">
+        <v>0.223</v>
+      </c>
+      <c r="CA40">
+        <v>0.248</v>
+      </c>
+      <c r="CC40">
+        <v>0.172</v>
+      </c>
+      <c r="CH40">
+        <v>0.175</v>
+      </c>
+      <c r="CL40">
+        <v>0.243</v>
+      </c>
+      <c r="CU40">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:99">
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41">
+        <v>15.045</v>
+      </c>
+      <c r="F41">
+        <v>48.68</v>
+      </c>
+      <c r="G41">
+        <v>0.309</v>
+      </c>
+      <c r="H41">
+        <v>0.0</v>
+      </c>
+      <c r="M41">
+        <v>1.599</v>
+      </c>
+      <c r="P41">
+        <v>0.188</v>
+      </c>
+      <c r="Q41">
+        <v>0.402</v>
+      </c>
+      <c r="W41">
+        <v>0.149</v>
+      </c>
+      <c r="AA41">
+        <v>0.068</v>
+      </c>
+      <c r="AJ41">
+        <v>0.18</v>
+      </c>
+      <c r="AQ41">
+        <v>0.053</v>
+      </c>
+      <c r="AT41">
+        <v>0.06</v>
+      </c>
+      <c r="AV41">
+        <v>0.301</v>
+      </c>
+      <c r="BB41">
+        <v>0.157</v>
+      </c>
+      <c r="BC41">
+        <v>0.167</v>
+      </c>
+      <c r="BF41">
+        <v>0.249</v>
+      </c>
+      <c r="BG41">
+        <v>0.433</v>
+      </c>
+      <c r="BJ41">
+        <v>0.187</v>
+      </c>
+      <c r="BL41">
+        <v>0.102</v>
+      </c>
+      <c r="BN41">
+        <v>-0.036</v>
+      </c>
+      <c r="BQ41">
+        <v>0.128</v>
+      </c>
+      <c r="BX41">
+        <v>0.093</v>
+      </c>
+      <c r="CA41">
+        <v>0.372</v>
+      </c>
+      <c r="CB41">
+        <v>0.351</v>
+      </c>
+      <c r="CE41">
+        <v>0.196</v>
+      </c>
+      <c r="CH41">
+        <v>0.142</v>
+      </c>
+      <c r="CL41">
+        <v>0.068</v>
+      </c>
+      <c r="CN41">
+        <v>0.129</v>
+      </c>
+      <c r="CT41">
+        <v>0.125</v>
+      </c>
+      <c r="CU41">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:99">
+      <c r="C42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42">
+        <v>5.35</v>
+      </c>
+      <c r="F42">
+        <v>20.045</v>
+      </c>
+      <c r="G42">
+        <v>0.267</v>
+      </c>
+      <c r="H42">
+        <v>0.0</v>
+      </c>
+      <c r="K42">
+        <v>0.192</v>
+      </c>
+      <c r="M42">
+        <v>0.175</v>
+      </c>
+      <c r="P42">
+        <v>0.129</v>
+      </c>
+      <c r="Q42">
+        <v>0.379</v>
+      </c>
+      <c r="W42">
+        <v>0.162</v>
+      </c>
+      <c r="AA42">
+        <v>0.197</v>
+      </c>
+      <c r="AK42">
+        <v>0.115</v>
+      </c>
+      <c r="AQ42">
+        <v>0.168</v>
+      </c>
+      <c r="AT42">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:99">
+      <c r="C43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43">
+        <v>5.461</v>
+      </c>
+      <c r="F43">
+        <v>20.05</v>
+      </c>
+      <c r="G43">
+        <v>0.272</v>
+      </c>
+      <c r="H43">
+        <v>0.0</v>
+      </c>
+      <c r="M43">
+        <v>0.21</v>
+      </c>
+      <c r="P43">
+        <v>0.201</v>
+      </c>
+      <c r="Q43">
+        <v>0.386</v>
+      </c>
+      <c r="W43">
+        <v>0.498</v>
+      </c>
+      <c r="AA43">
+        <v>0.131</v>
+      </c>
+      <c r="AK43">
+        <v>0.207</v>
+      </c>
+      <c r="AM43">
+        <v>-0.061</v>
+      </c>
+      <c r="AT43">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:99">
+      <c r="C44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44">
+        <v>17.184</v>
+      </c>
+      <c r="F44">
+        <v>48.675</v>
+      </c>
+      <c r="G44">
+        <v>0.353</v>
+      </c>
+      <c r="H44">
+        <v>0.0</v>
+      </c>
+      <c r="K44">
+        <v>0.272</v>
+      </c>
+      <c r="M44">
+        <v>0.48</v>
+      </c>
+      <c r="P44">
+        <v>0.168</v>
+      </c>
+      <c r="Q44">
+        <v>0.524</v>
+      </c>
+      <c r="W44">
+        <v>0.148</v>
+      </c>
+      <c r="AA44">
+        <v>0.06</v>
+      </c>
+      <c r="AG44">
+        <v>0.08</v>
+      </c>
+      <c r="AK44">
+        <v>0.227</v>
+      </c>
+      <c r="AM44">
+        <v>0.18</v>
+      </c>
+      <c r="AW44">
+        <v>2.146</v>
+      </c>
+      <c r="BB44">
+        <v>0.354</v>
+      </c>
+      <c r="BC44">
+        <v>0.307</v>
+      </c>
+      <c r="BF44">
+        <v>0.49</v>
+      </c>
+      <c r="BJ44">
+        <v>0.081</v>
+      </c>
+      <c r="BL44">
+        <v>0.218</v>
+      </c>
+      <c r="BO44">
+        <v>0.245</v>
+      </c>
+      <c r="CA44">
+        <v>0.529</v>
+      </c>
+      <c r="CB44">
+        <v>0.132</v>
+      </c>
+      <c r="CC44">
+        <v>0.25</v>
+      </c>
+      <c r="CI44">
+        <v>0.382</v>
+      </c>
+      <c r="CN44">
+        <v>0.203</v>
+      </c>
+      <c r="CT44">
+        <v>0.334</v>
+      </c>
+      <c r="CU44">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:99">
+      <c r="C45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>52</v>
+      </c>
+      <c r="E45">
+        <v>16.621</v>
+      </c>
+      <c r="F45">
+        <v>48.68</v>
+      </c>
+      <c r="G45">
+        <v>0.341</v>
+      </c>
+      <c r="H45">
+        <v>0.0</v>
+      </c>
+      <c r="M45">
+        <v>0.497</v>
+      </c>
+      <c r="P45">
+        <v>0.092</v>
+      </c>
+      <c r="Q45">
+        <v>0.401</v>
+      </c>
+      <c r="W45">
+        <v>0.382</v>
+      </c>
+      <c r="AJ45">
+        <v>0.14</v>
+      </c>
+      <c r="AM45">
+        <v>-0.046</v>
+      </c>
+      <c r="AV45">
+        <v>0.037</v>
+      </c>
+      <c r="AW45">
+        <v>0.802</v>
+      </c>
+      <c r="AX45">
+        <v>1.415</v>
+      </c>
+      <c r="BB45">
+        <v>0.368</v>
+      </c>
+      <c r="BF45">
+        <v>0.261</v>
+      </c>
+      <c r="BG45">
+        <v>0.235</v>
+      </c>
+      <c r="BJ45">
+        <v>0.469</v>
+      </c>
+      <c r="BM45">
+        <v>0.206</v>
+      </c>
+      <c r="BN45">
+        <v>-0.049</v>
+      </c>
+      <c r="BO45">
+        <v>-0.13</v>
+      </c>
+      <c r="BQ45">
+        <v>0.76</v>
+      </c>
+      <c r="BX45">
+        <v>0.085</v>
+      </c>
+      <c r="CA45">
+        <v>0.179</v>
+      </c>
+      <c r="CB45">
+        <v>0.294</v>
+      </c>
+      <c r="CC45">
+        <v>0.127</v>
+      </c>
+      <c r="CE45">
+        <v>0.086</v>
+      </c>
+      <c r="CF45">
+        <v>0.137</v>
+      </c>
+      <c r="CH45">
+        <v>0.229</v>
+      </c>
+      <c r="CI45">
+        <v>0.459</v>
+      </c>
+      <c r="CL45">
+        <v>-0.108</v>
+      </c>
+      <c r="CT45">
+        <v>0.191</v>
+      </c>
+      <c r="CU45">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:99">
+      <c r="C46" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46">
+        <v>19.181</v>
+      </c>
+      <c r="F46">
+        <v>48.659</v>
+      </c>
+      <c r="G46">
+        <v>0.394</v>
+      </c>
+      <c r="H46">
+        <v>0.0</v>
+      </c>
+      <c r="K46">
+        <v>0.055</v>
+      </c>
+      <c r="M46">
+        <v>0.25</v>
+      </c>
+      <c r="P46">
+        <v>0.113</v>
+      </c>
+      <c r="Q46">
+        <v>0.478</v>
+      </c>
+      <c r="W46">
+        <v>0.204</v>
+      </c>
+      <c r="AA46">
+        <v>-0.067</v>
+      </c>
+      <c r="AK46">
+        <v>0.13</v>
+      </c>
+      <c r="AM46">
+        <v>-0.071</v>
+      </c>
+      <c r="AV46">
+        <v>0.117</v>
+      </c>
+      <c r="AW46">
+        <v>0.176</v>
+      </c>
+      <c r="BB46">
+        <v>0.596</v>
+      </c>
+      <c r="BC46">
+        <v>0.189</v>
+      </c>
+      <c r="BF46">
+        <v>0.284</v>
+      </c>
+      <c r="BG46">
+        <v>0.265</v>
+      </c>
+      <c r="BJ46">
+        <v>0.33</v>
+      </c>
+      <c r="BL46">
+        <v>0.447</v>
+      </c>
+      <c r="BN46">
+        <v>-0.079</v>
+      </c>
+      <c r="BQ46">
+        <v>0.17</v>
+      </c>
+      <c r="BS46">
+        <v>0.087</v>
+      </c>
+      <c r="BU46">
+        <v>0.115</v>
+      </c>
+      <c r="BX46">
+        <v>0.149</v>
+      </c>
+      <c r="BZ46">
+        <v>0.061</v>
+      </c>
+      <c r="CA46">
+        <v>0.844</v>
+      </c>
+      <c r="CB46">
+        <v>0.359</v>
+      </c>
+      <c r="CC46">
+        <v>0.96</v>
+      </c>
+      <c r="CH46">
+        <v>0.468</v>
+      </c>
+      <c r="CI46">
+        <v>0.681</v>
+      </c>
+      <c r="CK46">
+        <v>1.826</v>
+      </c>
+      <c r="CN46">
+        <v>0.119</v>
+      </c>
+      <c r="CT46">
+        <v>0.313</v>
+      </c>
+      <c r="CU46">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:99">
+      <c r="C47" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>52</v>
+      </c>
+      <c r="E47">
         <v>16.441</v>
       </c>
-      <c r="F12">
+      <c r="F47">
         <v>48.67</v>
       </c>
-      <c r="G12">
+      <c r="G47">
         <v>0.338</v>
       </c>
-      <c r="H12">
-        <v>0.0</v>
-      </c>
-      <c r="I12">
+      <c r="H47">
+        <v>0.0</v>
+      </c>
+      <c r="K47">
         <v>0.075</v>
       </c>
-      <c r="J12">
+      <c r="M47">
         <v>0.102</v>
       </c>
-      <c r="L12">
+      <c r="P47">
         <v>0.069</v>
       </c>
-      <c r="M12">
+      <c r="Q47">
         <v>0.283</v>
       </c>
-      <c r="N12">
+      <c r="W47">
         <v>0.321</v>
       </c>
-      <c r="R12">
+      <c r="AG47">
         <v>0.397</v>
       </c>
-      <c r="S12">
+      <c r="AJ47">
         <v>0.103</v>
       </c>
-      <c r="W12">
+      <c r="AQ47">
         <v>0.096</v>
       </c>
-      <c r="AA12">
+      <c r="AW47">
         <v>1.235</v>
       </c>
-      <c r="AC12">
+      <c r="AX47">
         <v>0.063</v>
       </c>
-      <c r="AD12">
+      <c r="BB47">
         <v>0.324</v>
       </c>
-      <c r="AF12">
+      <c r="BC47">
         <v>0.571</v>
       </c>
-      <c r="AG12">
+      <c r="BF47">
         <v>0.546</v>
       </c>
-      <c r="AI12">
+      <c r="BG47">
         <v>0.076</v>
       </c>
-      <c r="AJ12">
+      <c r="BJ47">
         <v>0.232</v>
       </c>
-      <c r="AK12">
+      <c r="BL47">
         <v>0.118</v>
       </c>
-      <c r="AO12">
+      <c r="BO47">
         <v>0.11</v>
       </c>
-      <c r="AQ12">
+      <c r="BS47">
         <v>0.085</v>
       </c>
-      <c r="AV12">
+      <c r="CA47">
         <v>0.142</v>
       </c>
-      <c r="AW12">
+      <c r="CB47">
         <v>0.468</v>
       </c>
-      <c r="BA12">
+      <c r="CF47">
         <v>0.488</v>
       </c>
-      <c r="BB12">
+      <c r="CH47">
         <v>0.182</v>
       </c>
-      <c r="BD12">
+      <c r="CK47">
         <v>0.1</v>
       </c>
-      <c r="BE12">
+      <c r="CL47">
         <v>-0.121</v>
       </c>
-      <c r="BF12">
+      <c r="CN47">
         <v>0.073</v>
       </c>
-      <c r="BH12">
+      <c r="CT47">
         <v>0.431</v>
       </c>
-      <c r="BI12">
+      <c r="CU47">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:99">
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48">
+        <v>16.867</v>
+      </c>
+      <c r="F48">
+        <v>42.008</v>
+      </c>
+      <c r="G48">
+        <v>0.402</v>
+      </c>
+      <c r="H48">
+        <v>0.0</v>
+      </c>
+      <c r="K48">
+        <v>0.169</v>
+      </c>
+      <c r="M48">
+        <v>0.658</v>
+      </c>
+      <c r="Q48">
+        <v>2.073</v>
+      </c>
+      <c r="W48">
+        <v>0.201</v>
+      </c>
+      <c r="AG48">
+        <v>0.099</v>
+      </c>
+      <c r="AJ48">
+        <v>0.246</v>
+      </c>
+      <c r="AQ48">
+        <v>0.075</v>
+      </c>
+      <c r="AT48">
+        <v>0.121</v>
+      </c>
+      <c r="AW48">
+        <v>0.244</v>
+      </c>
+      <c r="BB48">
+        <v>0.919</v>
+      </c>
+      <c r="BF48">
+        <v>0.281</v>
+      </c>
+      <c r="BJ48">
+        <v>0.19</v>
+      </c>
+      <c r="BL48">
+        <v>0.214</v>
+      </c>
+      <c r="BN48">
+        <v>0.472</v>
+      </c>
+      <c r="BO48">
+        <v>-0.104</v>
+      </c>
+      <c r="BQ48">
+        <v>0.198</v>
+      </c>
+      <c r="BS48">
+        <v>1.281</v>
+      </c>
+      <c r="BU48">
+        <v>0.113</v>
+      </c>
+      <c r="BX48">
+        <v>0.062</v>
+      </c>
+      <c r="CA48">
+        <v>0.642</v>
+      </c>
+      <c r="CB48">
+        <v>0.163</v>
+      </c>
+      <c r="CC48">
+        <v>0.168</v>
+      </c>
+      <c r="CH48">
+        <v>0.077</v>
+      </c>
+      <c r="CI48">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:99">
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49">
+        <v>15.296</v>
+      </c>
+      <c r="F49">
+        <v>48.69</v>
+      </c>
+      <c r="G49">
+        <v>0.314</v>
+      </c>
+      <c r="H49">
+        <v>0.0</v>
+      </c>
+      <c r="M49">
+        <v>0.225</v>
+      </c>
+      <c r="P49">
+        <v>0.645</v>
+      </c>
+      <c r="Q49">
+        <v>0.057</v>
+      </c>
+      <c r="T49">
+        <v>0.257</v>
+      </c>
+      <c r="W49">
+        <v>0.321</v>
+      </c>
+      <c r="AA49">
+        <v>0.148</v>
+      </c>
+      <c r="AG49">
+        <v>0.097</v>
+      </c>
+      <c r="AK49">
+        <v>0.154</v>
+      </c>
+      <c r="AM49">
+        <v>-0.081</v>
+      </c>
+      <c r="AW49">
+        <v>0.28</v>
+      </c>
+      <c r="BB49">
+        <v>0.24</v>
+      </c>
+      <c r="BC49">
+        <v>0.239</v>
+      </c>
+      <c r="BF49">
+        <v>0.24</v>
+      </c>
+      <c r="BH49">
+        <v>0.094</v>
+      </c>
+      <c r="BJ49">
+        <v>0.269</v>
+      </c>
+      <c r="BL49">
+        <v>0.385</v>
+      </c>
+      <c r="BN49">
+        <v>0.305</v>
+      </c>
+      <c r="BO49">
+        <v>-0.078</v>
+      </c>
+      <c r="BQ49">
+        <v>0.185</v>
+      </c>
+      <c r="BS49">
+        <v>0.091</v>
+      </c>
+      <c r="BW49">
+        <v>0.198</v>
+      </c>
+      <c r="BZ49">
+        <v>0.106</v>
+      </c>
+      <c r="CA49">
+        <v>0.352</v>
+      </c>
+      <c r="CB49">
+        <v>0.284</v>
+      </c>
+      <c r="CC49">
+        <v>0.244</v>
+      </c>
+      <c r="CF49">
+        <v>0.084</v>
+      </c>
+      <c r="CH49">
+        <v>0.581</v>
+      </c>
+      <c r="CL49">
+        <v>0.06</v>
+      </c>
+      <c r="CN49">
+        <v>0.098</v>
+      </c>
+      <c r="CT49">
+        <v>0.082</v>
+      </c>
+      <c r="CU49">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:99">
+      <c r="C50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50">
+        <v>15.441</v>
+      </c>
+      <c r="F50">
+        <v>48.69</v>
+      </c>
+      <c r="G50">
+        <v>0.317</v>
+      </c>
+      <c r="H50">
+        <v>0.0</v>
+      </c>
+      <c r="M50">
+        <v>0.183</v>
+      </c>
+      <c r="P50">
+        <v>0.153</v>
+      </c>
+      <c r="Q50">
+        <v>0.073</v>
+      </c>
+      <c r="W50">
+        <v>0.328</v>
+      </c>
+      <c r="AA50">
+        <v>0.139</v>
+      </c>
+      <c r="AJ50">
+        <v>0.296</v>
+      </c>
+      <c r="AM50">
+        <v>-0.05</v>
+      </c>
+      <c r="AQ50">
+        <v>0.063</v>
+      </c>
+      <c r="AV50">
+        <v>0.064</v>
+      </c>
+      <c r="AW50">
+        <v>0.857</v>
+      </c>
+      <c r="BB50">
+        <v>0.235</v>
+      </c>
+      <c r="BC50">
+        <v>0.167</v>
+      </c>
+      <c r="BF50">
+        <v>0.206</v>
+      </c>
+      <c r="BJ50">
+        <v>0.32</v>
+      </c>
+      <c r="BL50">
+        <v>0.462</v>
+      </c>
+      <c r="BO50">
+        <v>0.131</v>
+      </c>
+      <c r="BS50">
+        <v>0.056</v>
+      </c>
+      <c r="BU50">
+        <v>0.069</v>
+      </c>
+      <c r="BX50">
+        <v>0.093</v>
+      </c>
+      <c r="CA50">
+        <v>0.235</v>
+      </c>
+      <c r="CB50">
+        <v>0.323</v>
+      </c>
+      <c r="CE50">
+        <v>0.158</v>
+      </c>
+      <c r="CF50">
+        <v>0.056</v>
+      </c>
+      <c r="CH50">
+        <v>1.028</v>
+      </c>
+      <c r="CI50">
+        <v>0.184</v>
+      </c>
+      <c r="CK50">
+        <v>0.226</v>
+      </c>
+      <c r="CN50">
+        <v>0.134</v>
+      </c>
+      <c r="CT50">
+        <v>0.38</v>
+      </c>
+      <c r="CU50">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:99">
+      <c r="C51" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51">
+        <v>13.784</v>
+      </c>
+      <c r="F51">
+        <v>48.685</v>
+      </c>
+      <c r="G51">
+        <v>0.283</v>
+      </c>
+      <c r="H51">
+        <v>0.0</v>
+      </c>
+      <c r="M51">
+        <v>0.552</v>
+      </c>
+      <c r="P51">
+        <v>0.12</v>
+      </c>
+      <c r="W51">
+        <v>0.189</v>
+      </c>
+      <c r="AA51">
+        <v>0.263</v>
+      </c>
+      <c r="AD51">
+        <v>0.108</v>
+      </c>
+      <c r="AK51">
+        <v>0.147</v>
+      </c>
+      <c r="AQ51">
+        <v>0.067</v>
+      </c>
+      <c r="AX51">
+        <v>0.154</v>
+      </c>
+      <c r="AZ51">
+        <v>0.22</v>
+      </c>
+      <c r="BB51">
+        <v>0.373</v>
+      </c>
+      <c r="BC51">
+        <v>0.164</v>
+      </c>
+      <c r="BJ51">
+        <v>0.196</v>
+      </c>
+      <c r="BL51">
+        <v>0.258</v>
+      </c>
+      <c r="BQ51">
+        <v>0.114</v>
+      </c>
+      <c r="BU51">
+        <v>0.046</v>
+      </c>
+      <c r="CA51">
+        <v>0.322</v>
+      </c>
+      <c r="CB51">
+        <v>0.349</v>
+      </c>
+      <c r="CE51">
+        <v>0.163</v>
+      </c>
+      <c r="CK51">
+        <v>0.14</v>
+      </c>
+      <c r="CL51">
+        <v>0.101</v>
+      </c>
+      <c r="CN51">
+        <v>0.108</v>
+      </c>
+      <c r="CS51">
+        <v>0.19</v>
+      </c>
+      <c r="CU51">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:99">
+      <c r="C52" t="s">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52">
+        <v>15.865</v>
+      </c>
+      <c r="F52">
+        <v>48.685</v>
+      </c>
+      <c r="G52">
+        <v>0.326</v>
+      </c>
+      <c r="H52">
+        <v>0.0</v>
+      </c>
+      <c r="K52">
+        <v>0.45</v>
+      </c>
+      <c r="M52">
+        <v>0.141</v>
+      </c>
+      <c r="P52">
+        <v>0.057</v>
+      </c>
+      <c r="Q52">
+        <v>0.119</v>
+      </c>
+      <c r="T52">
+        <v>0.259</v>
+      </c>
+      <c r="W52">
+        <v>0.186</v>
+      </c>
+      <c r="AA52">
+        <v>0.101</v>
+      </c>
+      <c r="AG52">
+        <v>0.06</v>
+      </c>
+      <c r="AJ52">
+        <v>0.177</v>
+      </c>
+      <c r="AT52">
+        <v>-0.135</v>
+      </c>
+      <c r="AW52">
+        <v>0.614</v>
+      </c>
+      <c r="BB52">
+        <v>0.314</v>
+      </c>
+      <c r="BC52">
+        <v>0.25</v>
+      </c>
+      <c r="BF52">
+        <v>0.248</v>
+      </c>
+      <c r="BJ52">
+        <v>0.294</v>
+      </c>
+      <c r="BL52">
+        <v>0.362</v>
+      </c>
+      <c r="BN52">
+        <v>-0.06</v>
+      </c>
+      <c r="BO52">
+        <v>0.258</v>
+      </c>
+      <c r="BU52">
+        <v>0.58</v>
+      </c>
+      <c r="BZ52">
+        <v>0.055</v>
+      </c>
+      <c r="CA52">
+        <v>0.698</v>
+      </c>
+      <c r="CB52">
+        <v>0.557</v>
+      </c>
+      <c r="CH52">
+        <v>0.168</v>
+      </c>
+      <c r="CL52">
+        <v>0.295</v>
+      </c>
+      <c r="CQ52">
+        <v>-0.083</v>
+      </c>
+      <c r="CU52">
         <v>0.0</v>
       </c>
     </row>
